--- a/dynamic_context_server/ref/foundation/lunar_aliasing_table.xlsx
+++ b/dynamic_context_server/ref/foundation/lunar_aliasing_table.xlsx
@@ -235,7 +235,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,8 +286,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,6 +357,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -355,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -409,6 +430,11 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,11 +592,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="358164912"/>
-        <c:axId val="358173144"/>
+        <c:axId val="888848880"/>
+        <c:axId val="888849664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="358164912"/>
+        <c:axId val="888848880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -642,12 +668,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="358173144"/>
+        <c:crossAx val="888849664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="358173144"/>
+        <c:axId val="888849664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -690,7 +716,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="358164912"/>
+        <c:crossAx val="888848880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -759,7 +785,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8301,11 +8326,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="663469112"/>
-        <c:axId val="663461272"/>
+        <c:axId val="888850448"/>
+        <c:axId val="888841040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="663469112"/>
+        <c:axId val="888850448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.5"/>
@@ -8363,12 +8388,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="663461272"/>
+        <c:crossAx val="888841040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="663461272"/>
+        <c:axId val="888841040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8425,7 +8450,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="663469112"/>
+        <c:crossAx val="888850448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8489,7 +8514,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9977,11 +10001,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="599877064"/>
-        <c:axId val="599869616"/>
+        <c:axId val="888842608"/>
+        <c:axId val="888856328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="599877064"/>
+        <c:axId val="888842608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10038,12 +10062,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="599869616"/>
+        <c:crossAx val="888856328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="599869616"/>
+        <c:axId val="888856328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10100,7 +10124,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="599877064"/>
+        <c:crossAx val="888842608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10164,7 +10188,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11652,11 +11675,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="632023016"/>
-        <c:axId val="632022624"/>
+        <c:axId val="888853584"/>
+        <c:axId val="888854760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="632023016"/>
+        <c:axId val="888853584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000"/>
@@ -11715,12 +11738,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632022624"/>
+        <c:crossAx val="888854760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="632022624"/>
+        <c:axId val="888854760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11777,7 +11800,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632023016"/>
+        <c:crossAx val="888853584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11841,7 +11864,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13318,11 +13340,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="558104152"/>
-        <c:axId val="558102584"/>
+        <c:axId val="1077344848"/>
+        <c:axId val="1077346024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="558104152"/>
+        <c:axId val="1077344848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13379,12 +13401,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558102584"/>
+        <c:crossAx val="1077346024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="558102584"/>
+        <c:axId val="1077346024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13441,7 +13463,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558104152"/>
+        <c:crossAx val="1077344848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16418,11 +16440,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="633778504"/>
-        <c:axId val="633784776"/>
+        <c:axId val="1077342104"/>
+        <c:axId val="1077339360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="633778504"/>
+        <c:axId val="1077342104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16479,12 +16501,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="633784776"/>
+        <c:crossAx val="1077339360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="633784776"/>
+        <c:axId val="1077339360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16541,7 +16563,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="633778504"/>
+        <c:crossAx val="1077342104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20475,10 +20497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y116"/>
+  <dimension ref="A1:Y143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21652,31 +21674,31 @@
         <f t="shared" si="89"/>
         <v>0.22614248289174202</v>
       </c>
-      <c r="M16" s="19">
+      <c r="M16" s="39">
         <f t="shared" si="89"/>
         <v>0.29222754562983211</v>
       </c>
-      <c r="N16" s="19">
+      <c r="N16" s="39">
         <f t="shared" si="89"/>
         <v>0.41288346816192406</v>
       </c>
-      <c r="O16" s="19">
+      <c r="O16" s="39">
         <f>2*PI()/O15</f>
         <v>0.70323938395895058</v>
       </c>
-      <c r="P16" s="25">
+      <c r="P16" s="37">
         <f>2*PI()/P15</f>
         <v>2.3697193830520789</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="38">
         <f>2*PI()/Q15</f>
         <v>-1.7300765487977172</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="38">
         <f>2*PI()/R15</f>
         <v>-0.63370990441993857</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="38">
         <f t="shared" ref="S16:W16" si="90">2*PI()/S15</f>
         <v>-0.38789622484717823</v>
       </c>
@@ -21697,7 +21719,7 @@
         <v>-0.15202168069739994</v>
       </c>
     </row>
-    <row r="17" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3">
         <v>27.212220816999999</v>
@@ -21787,7 +21809,7 @@
         <v>-83.497278155755794</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="E18" s="19">
@@ -21867,7 +21889,7 @@
         <v>-7.525018115511424E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:23" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3">
         <f>+B17/2</f>
@@ -21958,7 +21980,7 @@
         <v>-32.396217878402979</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="G20">
@@ -21993,15 +22015,15 @@
         <f t="shared" si="129"/>
         <v>0.2601469141549137</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="38">
         <f>2*PI()/O19</f>
         <v>0.35161969197947557</v>
       </c>
-      <c r="P20" s="19">
+      <c r="P20" s="39">
         <f>2*PI()/P19</f>
         <v>0.54230470547903353</v>
       </c>
-      <c r="Q20" s="24">
+      <c r="Q20" s="40">
         <f>2*PI()/Q19</f>
         <v>1.1848596915260425</v>
       </c>
@@ -22009,11 +22031,11 @@
         <f>2*PI()/R19</f>
         <v>-6.4095081071750188</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="38">
         <f t="shared" ref="S20:W20" si="130">2*PI()/S19</f>
         <v>-0.86503827439885694</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="38">
         <f t="shared" si="130"/>
         <v>-0.4638179742867089</v>
       </c>
@@ -22030,7 +22052,7 @@
         <v>-0.19394811242358903</v>
       </c>
     </row>
-    <row r="21" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
@@ -22106,7 +22128,7 @@
         <v>-25.250194817049131</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="H22">
         <f t="shared" ref="H22:L22" si="132">2*PI()/H21</f>
         <v>0.15428987536683483</v>
@@ -22144,7 +22166,7 @@
         <v>-0.98164970868561696</v>
       </c>
     </row>
-    <row r="23" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3">
         <f>+B21</f>
@@ -22235,7 +22257,7 @@
         <v>-89.594117421474522</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="E24" s="19">
@@ -22315,7 +22337,7 @@
         <v>-7.0129440280345789E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>5</v>
       </c>
@@ -22408,7 +22430,7 @@
         <v>-41.497187441242964</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="I26">
         <f t="shared" ref="I26:N26" si="154">2*PI()/I25</f>
         <v>0.13521704204860222</v>
@@ -22469,8 +22491,12 @@
         <f t="shared" si="155"/>
         <v>-0.15141231718598097</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y26">
+        <f>365.242*0.2424</f>
+        <v>88.534660800000012</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3">
         <f>+B25</f>
@@ -22561,7 +22587,7 @@
         <v>-83.580446792417348</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="E28" s="19">
@@ -22641,7 +22667,7 @@
         <v>-7.5175301739947326E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:23" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3">
         <f>+B27/2</f>
@@ -22732,7 +22758,7 @@
         <v>-32.728892425049224</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="G30">
@@ -22804,7 +22830,7 @@
         <v>-0.19197671664473187</v>
       </c>
     </row>
-    <row r="31" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>7</v>
       </c>
@@ -22896,71 +22922,71 @@
         <v>-47.951598526573932</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="H32">
-        <f>2*PI()/H31</f>
+        <f t="shared" ref="H32:W32" si="197">2*PI()/H31</f>
         <v>0.13571714038724339</v>
       </c>
       <c r="I32">
-        <f>2*PI()/I31</f>
+        <f t="shared" si="197"/>
         <v>0.15702861496993206</v>
       </c>
       <c r="J32">
-        <f>2*PI()/J31</f>
+        <f t="shared" si="197"/>
         <v>0.18627988773821902</v>
       </c>
       <c r="K32">
-        <f>2*PI()/K31</f>
+        <f t="shared" si="197"/>
         <v>0.22892378464192506</v>
       </c>
       <c r="L32">
-        <f>2*PI()/L31</f>
+        <f t="shared" si="197"/>
         <v>0.29688866039735989</v>
       </c>
       <c r="M32">
-        <f>2*PI()/M31</f>
+        <f t="shared" si="197"/>
         <v>0.42224985386403391</v>
       </c>
       <c r="N32">
-        <f>2*PI()/N31</f>
+        <f t="shared" si="197"/>
         <v>0.73085200702772779</v>
       </c>
       <c r="O32" s="24">
-        <f>2*PI()/O31</f>
+        <f t="shared" si="197"/>
         <v>2.7154280400040762</v>
       </c>
       <c r="P32">
-        <f>2*PI()/P31</f>
+        <f t="shared" si="197"/>
         <v>-1.5829448841221132</v>
       </c>
       <c r="Q32">
-        <f>2*PI()/Q31</f>
+        <f t="shared" si="197"/>
         <v>-0.61284501030308347</v>
       </c>
       <c r="R32" s="7">
-        <f>2*PI()/R31</f>
+        <f t="shared" si="197"/>
         <v>-0.37997762115277184</v>
       </c>
       <c r="S32">
-        <f>2*PI()/S31</f>
+        <f t="shared" si="197"/>
         <v>-0.27535056752250481</v>
       </c>
       <c r="T32">
-        <f>2*PI()/T31</f>
+        <f t="shared" si="197"/>
         <v>-0.21590186614916448</v>
       </c>
       <c r="U32">
-        <f>2*PI()/U31</f>
+        <f t="shared" si="197"/>
         <v>-0.17756520666666867</v>
       </c>
       <c r="V32">
-        <f>2*PI()/V31</f>
+        <f t="shared" si="197"/>
         <v>-0.15079012666254135</v>
       </c>
       <c r="W32">
-        <f>2*PI()/W31</f>
+        <f t="shared" si="197"/>
         <v>-0.13103182167529942</v>
       </c>
     </row>
@@ -22979,19 +23005,19 @@
         <v>32.57286850132931</v>
       </c>
       <c r="E33" s="4">
-        <f t="shared" ref="E33" si="197">+D33-2*PI()</f>
+        <f t="shared" ref="E33" si="198">+D33-2*PI()</f>
         <v>26.289683194149724</v>
       </c>
       <c r="F33" s="4">
-        <f t="shared" ref="F33" si="198">+E33-2*PI()</f>
+        <f t="shared" ref="F33" si="199">+E33-2*PI()</f>
         <v>20.006497886970138</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" ref="G33" si="199">+F33-2*PI()</f>
+        <f t="shared" ref="G33" si="200">+F33-2*PI()</f>
         <v>13.723312579790552</v>
       </c>
       <c r="H33" s="4">
-        <f t="shared" ref="H33" si="200">+G33-2*PI()</f>
+        <f t="shared" ref="H33" si="201">+G33-2*PI()</f>
         <v>7.4401272726109653</v>
       </c>
       <c r="I33" s="4">
@@ -22999,59 +23025,59 @@
         <v>1.1569419654313791</v>
       </c>
       <c r="J33" s="4">
-        <f t="shared" ref="J33" si="201">+I33-2*PI()</f>
+        <f t="shared" ref="J33" si="202">+I33-2*PI()</f>
         <v>-5.1262433417482072</v>
       </c>
       <c r="K33" s="4">
-        <f t="shared" ref="K33" si="202">+J33-2*PI()</f>
+        <f t="shared" ref="K33" si="203">+J33-2*PI()</f>
         <v>-11.409428648927793</v>
       </c>
       <c r="L33" s="4">
-        <f t="shared" ref="L33" si="203">+K33-2*PI()</f>
+        <f t="shared" ref="L33" si="204">+K33-2*PI()</f>
         <v>-17.69261395610738</v>
       </c>
       <c r="M33" s="4">
-        <f t="shared" ref="M33" si="204">+L33-2*PI()</f>
+        <f t="shared" ref="M33" si="205">+L33-2*PI()</f>
         <v>-23.975799263286966</v>
       </c>
       <c r="N33" s="4">
-        <f t="shared" ref="N33" si="205">+M33-2*PI()</f>
+        <f t="shared" ref="N33" si="206">+M33-2*PI()</f>
         <v>-30.258984570466552</v>
       </c>
       <c r="O33" s="4">
-        <f t="shared" ref="O33" si="206">+N33-2*PI()</f>
+        <f t="shared" ref="O33" si="207">+N33-2*PI()</f>
         <v>-36.542169877646138</v>
       </c>
       <c r="P33" s="4">
-        <f t="shared" ref="P33" si="207">+O33-2*PI()</f>
+        <f t="shared" ref="P33" si="208">+O33-2*PI()</f>
         <v>-42.825355184825725</v>
       </c>
       <c r="Q33" s="4">
-        <f t="shared" ref="Q33" si="208">+P33-2*PI()</f>
+        <f t="shared" ref="Q33" si="209">+P33-2*PI()</f>
         <v>-49.108540492005311</v>
       </c>
       <c r="R33" s="4">
-        <f t="shared" ref="R33" si="209">+Q33-2*PI()</f>
+        <f t="shared" ref="R33" si="210">+Q33-2*PI()</f>
         <v>-55.391725799184897</v>
       </c>
       <c r="S33" s="4">
-        <f t="shared" ref="S33" si="210">+R33-2*PI()</f>
+        <f t="shared" ref="S33" si="211">+R33-2*PI()</f>
         <v>-61.674911106364483</v>
       </c>
       <c r="T33" s="4">
-        <f t="shared" ref="T33" si="211">+S33-2*PI()</f>
+        <f t="shared" ref="T33" si="212">+S33-2*PI()</f>
         <v>-67.958096413544069</v>
       </c>
       <c r="U33" s="4">
-        <f t="shared" ref="U33" si="212">+T33-2*PI()</f>
+        <f t="shared" ref="U33" si="213">+T33-2*PI()</f>
         <v>-74.241281720723663</v>
       </c>
       <c r="V33" s="4">
-        <f t="shared" ref="V33" si="213">+U33-2*PI()</f>
+        <f t="shared" ref="V33" si="214">+U33-2*PI()</f>
         <v>-80.524467027903256</v>
       </c>
       <c r="W33" s="4">
-        <f t="shared" ref="W33" si="214">+V33-2*PI()</f>
+        <f t="shared" ref="W33" si="215">+V33-2*PI()</f>
         <v>-86.80765233508285</v>
       </c>
     </row>
@@ -23059,43 +23085,43 @@
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="E34" s="23">
-        <f t="shared" ref="E34:N34" si="215">2*PI()/E33</f>
+        <f t="shared" ref="E34:N34" si="216">2*PI()/E33</f>
         <v>0.23899813705544354</v>
       </c>
       <c r="F34" s="23">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>0.31405722993986412</v>
       </c>
       <c r="G34" s="23">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>0.45784756928385012</v>
       </c>
       <c r="H34" s="23">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>0.84449970772806782</v>
       </c>
       <c r="I34" s="24">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>5.4308560800081525</v>
       </c>
       <c r="J34" s="23">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>-1.2256900206061669</v>
       </c>
       <c r="K34" s="23">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>-0.55070113504500962</v>
       </c>
       <c r="L34" s="23">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>-0.35513041333333734</v>
       </c>
       <c r="M34" s="23">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>-0.26206364335059884</v>
       </c>
       <c r="N34" s="23">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>-0.2076469318574595</v>
       </c>
       <c r="O34" s="23">
@@ -23115,23 +23141,23 @@
         <v>-0.11343183871826656</v>
       </c>
       <c r="S34">
-        <f t="shared" ref="S34:W34" si="216">2*PI()/S33</f>
+        <f t="shared" ref="S34:W34" si="217">2*PI()/S33</f>
         <v>-0.10187587131408446</v>
       </c>
       <c r="T34">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>-9.2456758484590881E-2</v>
       </c>
       <c r="U34">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>-8.463196164655791E-2</v>
       </c>
       <c r="V34">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>-7.8028275617177859E-2</v>
       </c>
       <c r="W34">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>-7.2380546393837564E-2</v>
       </c>
     </row>
@@ -23150,19 +23176,19 @@
         <v>73.742806240700958</v>
       </c>
       <c r="E35" s="4">
-        <f t="shared" ref="E35" si="217">+D35-2*PI()</f>
+        <f t="shared" ref="E35" si="218">+D35-2*PI()</f>
         <v>67.459620933521364</v>
       </c>
       <c r="F35" s="4">
-        <f t="shared" ref="F35" si="218">+E35-2*PI()</f>
+        <f t="shared" ref="F35" si="219">+E35-2*PI()</f>
         <v>61.176435626341778</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" ref="G35" si="219">+F35-2*PI()</f>
+        <f t="shared" ref="G35" si="220">+F35-2*PI()</f>
         <v>54.893250319162192</v>
       </c>
       <c r="H35" s="4">
-        <f t="shared" ref="H35" si="220">+G35-2*PI()</f>
+        <f t="shared" ref="H35" si="221">+G35-2*PI()</f>
         <v>48.610065011982606</v>
       </c>
       <c r="I35" s="4">
@@ -23170,59 +23196,59 @@
         <v>42.326879704803019</v>
       </c>
       <c r="J35" s="4">
-        <f t="shared" ref="J35" si="221">+I35-2*PI()</f>
+        <f t="shared" ref="J35" si="222">+I35-2*PI()</f>
         <v>36.043694397623433</v>
       </c>
       <c r="K35" s="4">
-        <f t="shared" ref="K35" si="222">+J35-2*PI()</f>
+        <f t="shared" ref="K35" si="223">+J35-2*PI()</f>
         <v>29.760509090443847</v>
       </c>
       <c r="L35" s="4">
-        <f t="shared" ref="L35" si="223">+K35-2*PI()</f>
+        <f t="shared" ref="L35" si="224">+K35-2*PI()</f>
         <v>23.477323783264261</v>
       </c>
       <c r="M35" s="4">
-        <f t="shared" ref="M35" si="224">+L35-2*PI()</f>
+        <f t="shared" ref="M35" si="225">+L35-2*PI()</f>
         <v>17.194138476084674</v>
       </c>
       <c r="N35" s="4">
-        <f t="shared" ref="N35" si="225">+M35-2*PI()</f>
+        <f t="shared" ref="N35" si="226">+M35-2*PI()</f>
         <v>10.910953168905088</v>
       </c>
       <c r="O35" s="4">
-        <f t="shared" ref="O35" si="226">+N35-2*PI()</f>
+        <f t="shared" ref="O35" si="227">+N35-2*PI()</f>
         <v>4.627767861725502</v>
       </c>
       <c r="P35" s="4">
-        <f t="shared" ref="P35" si="227">+O35-2*PI()</f>
+        <f t="shared" ref="P35" si="228">+O35-2*PI()</f>
         <v>-1.6554174454540842</v>
       </c>
       <c r="Q35" s="4">
-        <f t="shared" ref="Q35" si="228">+P35-2*PI()</f>
+        <f t="shared" ref="Q35" si="229">+P35-2*PI()</f>
         <v>-7.9386027526336704</v>
       </c>
       <c r="R35" s="4">
-        <f t="shared" ref="R35" si="229">+Q35-2*PI()</f>
+        <f t="shared" ref="R35" si="230">+Q35-2*PI()</f>
         <v>-14.221788059813257</v>
       </c>
       <c r="S35" s="4">
-        <f t="shared" ref="S35" si="230">+R35-2*PI()</f>
+        <f t="shared" ref="S35" si="231">+R35-2*PI()</f>
         <v>-20.504973366992843</v>
       </c>
       <c r="T35" s="4">
-        <f t="shared" ref="T35" si="231">+S35-2*PI()</f>
+        <f t="shared" ref="T35" si="232">+S35-2*PI()</f>
         <v>-26.788158674172429</v>
       </c>
       <c r="U35" s="4">
-        <f t="shared" ref="U35" si="232">+T35-2*PI()</f>
+        <f t="shared" ref="U35" si="233">+T35-2*PI()</f>
         <v>-33.071343981352015</v>
       </c>
       <c r="V35" s="4">
-        <f t="shared" ref="V35" si="233">+U35-2*PI()</f>
+        <f t="shared" ref="V35" si="234">+U35-2*PI()</f>
         <v>-39.354529288531602</v>
       </c>
       <c r="W35" s="4">
-        <f t="shared" ref="W35" si="234">+V35-2*PI()</f>
+        <f t="shared" ref="W35" si="235">+V35-2*PI()</f>
         <v>-45.637714595711188</v>
       </c>
     </row>
@@ -23230,35 +23256,35 @@
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="G36">
-        <f t="shared" ref="G36:N36" si="235">2*PI()/G35</f>
+        <f t="shared" ref="G36:N36" si="236">2*PI()/G35</f>
         <v>0.11446189232096256</v>
       </c>
       <c r="H36">
-        <f t="shared" si="235"/>
+        <f t="shared" si="236"/>
         <v>0.12925687932387567</v>
       </c>
       <c r="I36">
-        <f t="shared" si="235"/>
+        <f t="shared" si="236"/>
         <v>0.14844433019868</v>
       </c>
       <c r="J36">
-        <f t="shared" si="235"/>
+        <f t="shared" si="236"/>
         <v>0.17432134558309517</v>
       </c>
       <c r="K36">
-        <f t="shared" si="235"/>
+        <f t="shared" si="236"/>
         <v>0.21112492693201704</v>
       </c>
       <c r="L36">
-        <f t="shared" si="235"/>
+        <f t="shared" si="236"/>
         <v>0.26762783378480881</v>
       </c>
       <c r="M36">
-        <f t="shared" si="235"/>
+        <f t="shared" si="236"/>
         <v>0.36542600351386423</v>
       </c>
       <c r="N36">
-        <f t="shared" si="235"/>
+        <f t="shared" si="236"/>
         <v>0.57586034967924826</v>
       </c>
       <c r="O36" s="24">
@@ -23278,23 +23304,23 @@
         <v>-0.4417999537578603</v>
       </c>
       <c r="S36">
-        <f t="shared" ref="S36:W36" si="236">2*PI()/S35</f>
+        <f t="shared" ref="S36:W36" si="237">2*PI()/S35</f>
         <v>-0.30642250515154151</v>
       </c>
       <c r="T36">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>-0.23455084702172774</v>
       </c>
       <c r="U36">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>-0.18998881057638584</v>
       </c>
       <c r="V36">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>-0.1596559638946205</v>
       </c>
       <c r="W36">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>-0.13767528376125235</v>
       </c>
     </row>
@@ -23306,7 +23332,7 @@
         <v>9.1329999999999991</v>
       </c>
       <c r="C37" s="15">
-        <f t="shared" ref="C37:C55" si="237">2*PI()/$B37*$B$1</f>
+        <f t="shared" ref="C37:C55" si="238">2*PI()/$B37*$B$1</f>
         <v>251.27387484268499</v>
       </c>
       <c r="D37" s="15">
@@ -23314,19 +23340,19 @@
         <v>87.911056856015733</v>
       </c>
       <c r="E37" s="15">
-        <f t="shared" ref="E37:T37" si="238">+D37-2*PI()</f>
+        <f t="shared" ref="E37:T37" si="239">+D37-2*PI()</f>
         <v>81.62787154883614</v>
       </c>
       <c r="F37" s="15">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>75.344686241656547</v>
       </c>
       <c r="G37" s="15">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>69.061500934476953</v>
       </c>
       <c r="H37" s="15">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>62.778315627297367</v>
       </c>
       <c r="I37" s="15">
@@ -23334,59 +23360,59 @@
         <v>56.495130320117781</v>
       </c>
       <c r="J37" s="15">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>50.211945012938195</v>
       </c>
       <c r="K37" s="15">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>43.928759705758608</v>
       </c>
       <c r="L37" s="15">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>37.645574398579022</v>
       </c>
       <c r="M37" s="15">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>31.362389091399436</v>
       </c>
       <c r="N37" s="15">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>25.07920378421985</v>
       </c>
       <c r="O37" s="15">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>18.796018477040263</v>
       </c>
       <c r="P37" s="15">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>12.512833169860677</v>
       </c>
       <c r="Q37" s="15">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>6.2296478626810909</v>
       </c>
       <c r="R37" s="15">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>-5.353744449849529E-2</v>
       </c>
       <c r="S37" s="15">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>-6.3367227516780815</v>
       </c>
       <c r="T37" s="15">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>-12.619908058857668</v>
       </c>
       <c r="U37" s="15">
-        <f t="shared" ref="U37:W37" si="239">+T37-2*PI()</f>
+        <f t="shared" ref="U37:W37" si="240">+T37-2*PI()</f>
         <v>-18.903093366037254</v>
       </c>
       <c r="V37" s="15">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>-25.18627867321684</v>
       </c>
       <c r="W37" s="15">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>-31.469463980396426</v>
       </c>
       <c r="Y37" s="16">
@@ -23397,63 +23423,63 @@
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="I38">
-        <f t="shared" ref="I38:W38" si="240">2*PI()/I37</f>
+        <f t="shared" ref="I38:W38" si="241">2*PI()/I37</f>
         <v>0.11121640522957001</v>
       </c>
       <c r="J38">
-        <f t="shared" si="240"/>
+        <f t="shared" si="241"/>
         <v>0.12513327865631549</v>
       </c>
       <c r="K38">
-        <f t="shared" si="240"/>
+        <f t="shared" si="241"/>
         <v>0.14303124762149672</v>
       </c>
       <c r="L38">
-        <f t="shared" si="240"/>
+        <f t="shared" si="241"/>
         <v>0.1669036907407834</v>
       </c>
       <c r="M38">
-        <f t="shared" si="240"/>
+        <f t="shared" si="241"/>
         <v>0.20034141177409967</v>
       </c>
       <c r="N38">
-        <f t="shared" si="240"/>
+        <f t="shared" si="241"/>
         <v>0.25053368365438483</v>
       </c>
       <c r="O38">
-        <f t="shared" si="240"/>
+        <f t="shared" si="241"/>
         <v>0.33428277987993205</v>
       </c>
       <c r="P38">
-        <f t="shared" si="240"/>
+        <f t="shared" si="241"/>
         <v>0.5021393014584199</v>
       </c>
       <c r="Q38" s="12">
-        <f t="shared" si="240"/>
+        <f t="shared" si="241"/>
         <v>1.0085939760446514</v>
       </c>
       <c r="R38">
-        <f t="shared" si="240"/>
+        <f t="shared" si="241"/>
         <v>-117.36057568747384</v>
       </c>
       <c r="S38">
-        <f t="shared" si="240"/>
+        <f t="shared" si="241"/>
         <v>-0.99155124082329194</v>
       </c>
       <c r="T38">
-        <f t="shared" si="240"/>
+        <f t="shared" si="241"/>
         <v>-0.49787884966162971</v>
       </c>
       <c r="U38">
-        <f t="shared" si="240"/>
+        <f t="shared" si="241"/>
         <v>-0.33238926484214687</v>
       </c>
       <c r="V38">
-        <f t="shared" si="240"/>
+        <f t="shared" si="241"/>
         <v>-0.24946858520473464</v>
       </c>
       <c r="W38">
-        <f t="shared" si="240"/>
+        <f t="shared" si="241"/>
         <v>-0.19965974987987184</v>
       </c>
     </row>
@@ -23472,19 +23498,19 @@
         <v>81.654640271085398</v>
       </c>
       <c r="E39" s="4">
-        <f t="shared" ref="E39" si="241">+D39-2*PI()</f>
+        <f t="shared" ref="E39" si="242">+D39-2*PI()</f>
         <v>75.371454963905819</v>
       </c>
       <c r="F39" s="4">
-        <f t="shared" ref="F39" si="242">+E39-2*PI()</f>
+        <f t="shared" ref="F39" si="243">+E39-2*PI()</f>
         <v>69.088269656726226</v>
       </c>
       <c r="G39" s="4">
-        <f t="shared" ref="G39" si="243">+F39-2*PI()</f>
+        <f t="shared" ref="G39" si="244">+F39-2*PI()</f>
         <v>62.80508434954664</v>
       </c>
       <c r="H39" s="4">
-        <f t="shared" ref="H39" si="244">+G39-2*PI()</f>
+        <f t="shared" ref="H39" si="245">+G39-2*PI()</f>
         <v>56.521899042367053</v>
       </c>
       <c r="I39" s="4">
@@ -23492,59 +23518,59 @@
         <v>50.238713735187467</v>
       </c>
       <c r="J39" s="4">
-        <f t="shared" ref="J39" si="245">+I39-2*PI()</f>
+        <f t="shared" ref="J39" si="246">+I39-2*PI()</f>
         <v>43.955528428007881</v>
       </c>
       <c r="K39" s="4">
-        <f t="shared" ref="K39" si="246">+J39-2*PI()</f>
+        <f t="shared" ref="K39" si="247">+J39-2*PI()</f>
         <v>37.672343120828295</v>
       </c>
       <c r="L39" s="4">
-        <f t="shared" ref="L39" si="247">+K39-2*PI()</f>
+        <f t="shared" ref="L39" si="248">+K39-2*PI()</f>
         <v>31.389157813648708</v>
       </c>
       <c r="M39" s="4">
-        <f t="shared" ref="M39" si="248">+L39-2*PI()</f>
+        <f t="shared" ref="M39" si="249">+L39-2*PI()</f>
         <v>25.105972506469122</v>
       </c>
       <c r="N39" s="4">
-        <f t="shared" ref="N39" si="249">+M39-2*PI()</f>
+        <f t="shared" ref="N39" si="250">+M39-2*PI()</f>
         <v>18.822787199289536</v>
       </c>
       <c r="O39" s="4">
-        <f t="shared" ref="O39" si="250">+N39-2*PI()</f>
+        <f t="shared" ref="O39" si="251">+N39-2*PI()</f>
         <v>12.53960189210995</v>
       </c>
       <c r="P39" s="4">
-        <f t="shared" ref="P39" si="251">+O39-2*PI()</f>
+        <f t="shared" ref="P39" si="252">+O39-2*PI()</f>
         <v>6.2564165849303635</v>
       </c>
       <c r="Q39" s="4">
-        <f t="shared" ref="Q39" si="252">+P39-2*PI()</f>
+        <f t="shared" ref="Q39" si="253">+P39-2*PI()</f>
         <v>-2.6768722249222776E-2</v>
       </c>
       <c r="R39" s="4">
-        <f t="shared" ref="R39" si="253">+Q39-2*PI()</f>
+        <f t="shared" ref="R39" si="254">+Q39-2*PI()</f>
         <v>-6.309954029428809</v>
       </c>
       <c r="S39" s="4">
-        <f t="shared" ref="S39" si="254">+R39-2*PI()</f>
+        <f t="shared" ref="S39" si="255">+R39-2*PI()</f>
         <v>-12.593139336608395</v>
       </c>
       <c r="T39" s="4">
-        <f t="shared" ref="T39" si="255">+S39-2*PI()</f>
+        <f t="shared" ref="T39" si="256">+S39-2*PI()</f>
         <v>-18.876324643787981</v>
       </c>
       <c r="U39" s="4">
-        <f t="shared" ref="U39" si="256">+T39-2*PI()</f>
+        <f t="shared" ref="U39" si="257">+T39-2*PI()</f>
         <v>-25.159509950967568</v>
       </c>
       <c r="V39" s="4">
-        <f t="shared" ref="V39" si="257">+U39-2*PI()</f>
+        <f t="shared" ref="V39" si="258">+U39-2*PI()</f>
         <v>-31.442695258147154</v>
       </c>
       <c r="W39" s="4">
-        <f t="shared" ref="W39" si="258">+V39-2*PI()</f>
+        <f t="shared" ref="W39" si="259">+V39-2*PI()</f>
         <v>-37.72588056532674</v>
       </c>
     </row>
@@ -23552,43 +23578,43 @@
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="E40" s="23">
-        <f t="shared" ref="E40:N40" si="259">2*PI()/E39</f>
+        <f t="shared" ref="E40:N40" si="260">2*PI()/E39</f>
         <v>8.3362929774786793E-2</v>
       </c>
       <c r="F40" s="23">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>9.0944314257664638E-2</v>
       </c>
       <c r="G40" s="23">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.10004262190318898</v>
       </c>
       <c r="H40" s="23">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.11116373323673903</v>
       </c>
       <c r="I40" s="23">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.12506660382068677</v>
       </c>
       <c r="J40" s="23">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.14294414222480428</v>
       </c>
       <c r="K40" s="23">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.16678509449298728</v>
       </c>
       <c r="L40" s="23">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.20017056030880562</v>
       </c>
       <c r="M40" s="23">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.25026655731263076</v>
       </c>
       <c r="N40" s="23">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.33380738148156636</v>
       </c>
       <c r="O40" s="23">
@@ -23608,23 +23634,23 @@
         <v>-0.99575769932326341</v>
       </c>
       <c r="S40">
-        <f t="shared" ref="S40:W40" si="260">2*PI()/S39</f>
+        <f t="shared" ref="S40:W40" si="261">2*PI()/S39</f>
         <v>-0.49893717040947028</v>
       </c>
       <c r="T40">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>-0.3328606296908187</v>
       </c>
       <c r="U40">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>-0.24973400990021874</v>
       </c>
       <c r="V40">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>-0.19982973010405469</v>
       </c>
       <c r="W40">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>-0.16654840690330666</v>
       </c>
     </row>
@@ -23643,19 +23669,19 @@
         <v>62.724778182798957</v>
       </c>
       <c r="E41" s="4">
-        <f t="shared" ref="E41" si="261">+D41-2*PI()</f>
+        <f t="shared" ref="E41" si="262">+D41-2*PI()</f>
         <v>56.441592875619371</v>
       </c>
       <c r="F41" s="4">
-        <f t="shared" ref="F41" si="262">+E41-2*PI()</f>
+        <f t="shared" ref="F41" si="263">+E41-2*PI()</f>
         <v>50.158407568439785</v>
       </c>
       <c r="G41" s="4">
-        <f t="shared" ref="G41" si="263">+F41-2*PI()</f>
+        <f t="shared" ref="G41" si="264">+F41-2*PI()</f>
         <v>43.875222261260198</v>
       </c>
       <c r="H41" s="4">
-        <f t="shared" ref="H41" si="264">+G41-2*PI()</f>
+        <f t="shared" ref="H41" si="265">+G41-2*PI()</f>
         <v>37.592036954080612</v>
       </c>
       <c r="I41" s="4">
@@ -23663,59 +23689,59 @@
         <v>31.308851646901026</v>
       </c>
       <c r="J41" s="4">
-        <f t="shared" ref="J41" si="265">+I41-2*PI()</f>
+        <f t="shared" ref="J41" si="266">+I41-2*PI()</f>
         <v>25.02566633972144</v>
       </c>
       <c r="K41" s="4">
-        <f t="shared" ref="K41" si="266">+J41-2*PI()</f>
+        <f t="shared" ref="K41" si="267">+J41-2*PI()</f>
         <v>18.742481032541853</v>
       </c>
       <c r="L41" s="4">
-        <f t="shared" ref="L41" si="267">+K41-2*PI()</f>
+        <f t="shared" ref="L41" si="268">+K41-2*PI()</f>
         <v>12.459295725362267</v>
       </c>
       <c r="M41" s="4">
-        <f t="shared" ref="M41" si="268">+L41-2*PI()</f>
+        <f t="shared" ref="M41" si="269">+L41-2*PI()</f>
         <v>6.1761104181826809</v>
       </c>
       <c r="N41" s="4">
-        <f t="shared" ref="N41" si="269">+M41-2*PI()</f>
+        <f t="shared" ref="N41" si="270">+M41-2*PI()</f>
         <v>-0.10707488899690532</v>
       </c>
       <c r="O41" s="4">
-        <f t="shared" ref="O41" si="270">+N41-2*PI()</f>
+        <f t="shared" ref="O41" si="271">+N41-2*PI()</f>
         <v>-6.3902601961764915</v>
       </c>
       <c r="P41" s="4">
-        <f t="shared" ref="P41" si="271">+O41-2*PI()</f>
+        <f t="shared" ref="P41" si="272">+O41-2*PI()</f>
         <v>-12.673445503356078</v>
       </c>
       <c r="Q41" s="4">
-        <f t="shared" ref="Q41" si="272">+P41-2*PI()</f>
+        <f t="shared" ref="Q41" si="273">+P41-2*PI()</f>
         <v>-18.956630810535664</v>
       </c>
       <c r="R41" s="4">
-        <f t="shared" ref="R41" si="273">+Q41-2*PI()</f>
+        <f t="shared" ref="R41" si="274">+Q41-2*PI()</f>
         <v>-25.23981611771525</v>
       </c>
       <c r="S41" s="4">
-        <f t="shared" ref="S41" si="274">+R41-2*PI()</f>
+        <f t="shared" ref="S41" si="275">+R41-2*PI()</f>
         <v>-31.523001424894836</v>
       </c>
       <c r="T41" s="4">
-        <f t="shared" ref="T41" si="275">+S41-2*PI()</f>
+        <f t="shared" ref="T41" si="276">+S41-2*PI()</f>
         <v>-37.806186732074423</v>
       </c>
       <c r="U41" s="4">
-        <f t="shared" ref="U41" si="276">+T41-2*PI()</f>
+        <f t="shared" ref="U41" si="277">+T41-2*PI()</f>
         <v>-44.089372039254009</v>
       </c>
       <c r="V41" s="4">
-        <f t="shared" ref="V41" si="277">+U41-2*PI()</f>
+        <f t="shared" ref="V41" si="278">+U41-2*PI()</f>
         <v>-50.372557346433595</v>
       </c>
       <c r="W41" s="4">
-        <f t="shared" ref="W41" si="278">+V41-2*PI()</f>
+        <f t="shared" ref="W41" si="279">+V41-2*PI()</f>
         <v>-56.655742653613181</v>
       </c>
     </row>
@@ -23723,35 +23749,35 @@
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="G42">
-        <f t="shared" ref="G42:N42" si="279">2*PI()/G41</f>
+        <f t="shared" ref="G42:N42" si="280">2*PI()/G41</f>
         <v>0.1432057772782464</v>
       </c>
       <c r="H42">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>0.16714138993996566</v>
       </c>
       <c r="I42">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>0.20068399116137819</v>
       </c>
       <c r="J42">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>0.25106965072920906</v>
       </c>
       <c r="K42">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>0.33523765056879778</v>
       </c>
       <c r="L42">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>0.50429698802232226</v>
       </c>
       <c r="M42" s="12">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>1.0173369453825944</v>
       </c>
       <c r="N42">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>-58.680287843783645</v>
       </c>
       <c r="O42">
@@ -23771,23 +23797,23 @@
         <v>-0.24893942483081571</v>
       </c>
       <c r="S42">
-        <f t="shared" ref="S42:W42" si="280">2*PI()/S41</f>
+        <f t="shared" ref="S42:W42" si="281">2*PI()/S41</f>
         <v>-0.19932065549499139</v>
       </c>
       <c r="T42">
-        <f t="shared" si="280"/>
+        <f t="shared" si="281"/>
         <v>-0.1661946324210738</v>
       </c>
       <c r="U42">
-        <f t="shared" si="280"/>
+        <f t="shared" si="281"/>
         <v>-0.14251020181429414</v>
       </c>
       <c r="V42">
-        <f t="shared" si="280"/>
+        <f t="shared" si="281"/>
         <v>-0.12473429260236753</v>
       </c>
       <c r="W42">
-        <f t="shared" si="280"/>
+        <f t="shared" si="281"/>
         <v>-0.11090111986695281</v>
       </c>
     </row>
@@ -23799,7 +23825,7 @@
         <v>9.1210000000000004</v>
       </c>
       <c r="C43" s="15">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>251.60446211361054</v>
       </c>
       <c r="D43" s="15">
@@ -23807,19 +23833,19 @@
         <v>88.241644126941281</v>
       </c>
       <c r="E43" s="15">
-        <f t="shared" ref="E43:W43" si="281">+D43-2*PI()</f>
+        <f t="shared" ref="E43:W43" si="282">+D43-2*PI()</f>
         <v>81.958458819761688</v>
       </c>
       <c r="F43" s="15">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>75.675273512582095</v>
       </c>
       <c r="G43" s="15">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>69.392088205402501</v>
       </c>
       <c r="H43" s="15">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>63.108902898222915</v>
       </c>
       <c r="I43" s="15">
@@ -23827,59 +23853,59 @@
         <v>56.825717591043329</v>
       </c>
       <c r="J43" s="15">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>50.542532283863743</v>
       </c>
       <c r="K43" s="15">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>44.259346976684157</v>
       </c>
       <c r="L43" s="15">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>37.97616166950457</v>
       </c>
       <c r="M43" s="15">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>31.692976362324984</v>
       </c>
       <c r="N43" s="15">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>25.409791055145398</v>
       </c>
       <c r="O43" s="15">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>19.126605747965812</v>
       </c>
       <c r="P43" s="15">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>12.843420440786225</v>
       </c>
       <c r="Q43" s="15">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>6.5602351336066391</v>
       </c>
       <c r="R43" s="15">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>0.27704982642705289</v>
       </c>
       <c r="S43" s="15">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>-6.0061354807525333</v>
       </c>
       <c r="T43" s="15">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>-12.28932078793212</v>
       </c>
       <c r="U43" s="15">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>-18.572506095111706</v>
       </c>
       <c r="V43" s="15">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>-24.855691402291292</v>
       </c>
       <c r="W43" s="15">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>-31.138876709470878</v>
       </c>
     </row>
@@ -23887,63 +23913,63 @@
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="I44">
-        <f t="shared" ref="I44:W44" si="282">2*PI()/I43</f>
+        <f t="shared" ref="I44:W44" si="283">2*PI()/I43</f>
         <v>0.11056939663125204</v>
       </c>
       <c r="J44">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>0.12431481018582763</v>
       </c>
       <c r="K44">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>0.14196290131640601</v>
       </c>
       <c r="L44">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>0.16545077308918976</v>
       </c>
       <c r="M44">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>0.19825166419676257</v>
       </c>
       <c r="N44">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>0.24727418236315099</v>
       </c>
       <c r="O44">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>0.3285049835801539</v>
       </c>
       <c r="P44">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>0.48921432854649688</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>0.95776830848519623</v>
       </c>
       <c r="R44" s="12">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>22.678899995030122</v>
       </c>
       <c r="S44">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>-1.0461278016979298</v>
       </c>
       <c r="T44">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>-0.51127197471723218</v>
       </c>
       <c r="U44">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>-0.33830573402440955</v>
       </c>
       <c r="V44">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>-0.25278658338188004</v>
       </c>
       <c r="W44">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>-0.20177944650355861</v>
       </c>
     </row>
@@ -23962,19 +23988,19 @@
         <v>81.819933906548172</v>
       </c>
       <c r="E45" s="4">
-        <f t="shared" ref="E45" si="283">+D45-2*PI()</f>
+        <f t="shared" ref="E45" si="284">+D45-2*PI()</f>
         <v>75.536748599368593</v>
       </c>
       <c r="F45" s="4">
-        <f t="shared" ref="F45" si="284">+E45-2*PI()</f>
+        <f t="shared" ref="F45" si="285">+E45-2*PI()</f>
         <v>69.253563292189</v>
       </c>
       <c r="G45" s="4">
-        <f t="shared" ref="G45" si="285">+F45-2*PI()</f>
+        <f t="shared" ref="G45" si="286">+F45-2*PI()</f>
         <v>62.970377985009414</v>
       </c>
       <c r="H45" s="4">
-        <f t="shared" ref="H45" si="286">+G45-2*PI()</f>
+        <f t="shared" ref="H45" si="287">+G45-2*PI()</f>
         <v>56.687192677829827</v>
       </c>
       <c r="I45" s="4">
@@ -23982,59 +24008,59 @@
         <v>50.404007370650241</v>
       </c>
       <c r="J45" s="4">
-        <f t="shared" ref="J45" si="287">+I45-2*PI()</f>
+        <f t="shared" ref="J45" si="288">+I45-2*PI()</f>
         <v>44.120822063470655</v>
       </c>
       <c r="K45" s="4">
-        <f t="shared" ref="K45" si="288">+J45-2*PI()</f>
+        <f t="shared" ref="K45" si="289">+J45-2*PI()</f>
         <v>37.837636756291069</v>
       </c>
       <c r="L45" s="4">
-        <f t="shared" ref="L45" si="289">+K45-2*PI()</f>
+        <f t="shared" ref="L45" si="290">+K45-2*PI()</f>
         <v>31.554451449111482</v>
       </c>
       <c r="M45" s="4">
-        <f t="shared" ref="M45" si="290">+L45-2*PI()</f>
+        <f t="shared" ref="M45" si="291">+L45-2*PI()</f>
         <v>25.271266141931896</v>
       </c>
       <c r="N45" s="4">
-        <f t="shared" ref="N45" si="291">+M45-2*PI()</f>
+        <f t="shared" ref="N45" si="292">+M45-2*PI()</f>
         <v>18.98808083475231</v>
       </c>
       <c r="O45" s="4">
-        <f t="shared" ref="O45" si="292">+N45-2*PI()</f>
+        <f t="shared" ref="O45" si="293">+N45-2*PI()</f>
         <v>12.704895527572724</v>
       </c>
       <c r="P45" s="4">
-        <f t="shared" ref="P45" si="293">+O45-2*PI()</f>
+        <f t="shared" ref="P45" si="294">+O45-2*PI()</f>
         <v>6.4217102203931375</v>
       </c>
       <c r="Q45" s="4">
-        <f t="shared" ref="Q45" si="294">+P45-2*PI()</f>
+        <f t="shared" ref="Q45" si="295">+P45-2*PI()</f>
         <v>0.13852491321355132</v>
       </c>
       <c r="R45" s="4">
-        <f t="shared" ref="R45" si="295">+Q45-2*PI()</f>
+        <f t="shared" ref="R45" si="296">+Q45-2*PI()</f>
         <v>-6.1446603939660349</v>
       </c>
       <c r="S45" s="4">
-        <f t="shared" ref="S45" si="296">+R45-2*PI()</f>
+        <f t="shared" ref="S45" si="297">+R45-2*PI()</f>
         <v>-12.427845701145621</v>
       </c>
       <c r="T45" s="4">
-        <f t="shared" ref="T45" si="297">+S45-2*PI()</f>
+        <f t="shared" ref="T45" si="298">+S45-2*PI()</f>
         <v>-18.711031008325207</v>
       </c>
       <c r="U45" s="4">
-        <f t="shared" ref="U45" si="298">+T45-2*PI()</f>
+        <f t="shared" ref="U45" si="299">+T45-2*PI()</f>
         <v>-24.994216315504794</v>
       </c>
       <c r="V45" s="4">
-        <f t="shared" ref="V45" si="299">+U45-2*PI()</f>
+        <f t="shared" ref="V45" si="300">+U45-2*PI()</f>
         <v>-31.27740162268438</v>
       </c>
       <c r="W45" s="4">
-        <f t="shared" ref="W45" si="300">+V45-2*PI()</f>
+        <f t="shared" ref="W45" si="301">+V45-2*PI()</f>
         <v>-37.560586929863966</v>
       </c>
     </row>
@@ -24042,43 +24068,43 @@
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="E46" s="23">
-        <f t="shared" ref="E46:N46" si="301">2*PI()/E45</f>
+        <f t="shared" ref="E46:N46" si="302">2*PI()/E45</f>
         <v>8.3180510462587037E-2</v>
       </c>
       <c r="F46" s="23">
-        <f t="shared" si="301"/>
+        <f t="shared" si="302"/>
         <v>9.0727249378780433E-2</v>
       </c>
       <c r="G46" s="23">
-        <f t="shared" si="301"/>
+        <f t="shared" si="302"/>
         <v>9.9780015750824097E-2</v>
       </c>
       <c r="H46" s="23">
-        <f t="shared" si="301"/>
+        <f t="shared" si="302"/>
         <v>0.11083959198489149</v>
       </c>
       <c r="I46" s="23">
-        <f t="shared" si="301"/>
+        <f t="shared" si="302"/>
         <v>0.124656463542187</v>
       </c>
       <c r="J46" s="23">
-        <f t="shared" si="301"/>
+        <f t="shared" si="302"/>
         <v>0.14240861827417489</v>
       </c>
       <c r="K46" s="23">
-        <f t="shared" si="301"/>
+        <f t="shared" si="302"/>
         <v>0.16605649416344465</v>
       </c>
       <c r="L46" s="23">
-        <f t="shared" si="301"/>
+        <f t="shared" si="302"/>
         <v>0.19912199447715354</v>
       </c>
       <c r="M46" s="23">
-        <f t="shared" si="301"/>
+        <f t="shared" si="302"/>
         <v>0.24862962037165501</v>
       </c>
       <c r="N46" s="23">
-        <f t="shared" si="301"/>
+        <f t="shared" si="302"/>
         <v>0.33090154617837908</v>
       </c>
       <c r="O46" s="23">
@@ -24098,23 +24124,23 @@
         <v>-1.0225439494344684</v>
       </c>
       <c r="S46">
-        <f t="shared" ref="S46:W46" si="302">2*PI()/S45</f>
+        <f t="shared" ref="S46:W46" si="303">2*PI()/S45</f>
         <v>-0.50557316676376107</v>
       </c>
       <c r="T46">
-        <f t="shared" si="302"/>
+        <f t="shared" si="303"/>
         <v>-0.33580112738758072</v>
       </c>
       <c r="U46">
-        <f t="shared" si="302"/>
+        <f t="shared" si="303"/>
         <v>-0.25138556968005055</v>
       </c>
       <c r="V46">
-        <f t="shared" si="302"/>
+        <f t="shared" si="303"/>
         <v>-0.2008857827442615</v>
       </c>
       <c r="W46">
-        <f t="shared" si="302"/>
+        <f t="shared" si="303"/>
         <v>-0.16728133984998786</v>
       </c>
     </row>
@@ -24133,19 +24159,19 @@
         <v>63.385952724650053</v>
       </c>
       <c r="E47" s="4">
-        <f t="shared" ref="E47" si="303">+D47-2*PI()</f>
+        <f t="shared" ref="E47" si="304">+D47-2*PI()</f>
         <v>57.102767417470467</v>
       </c>
       <c r="F47" s="4">
-        <f t="shared" ref="F47" si="304">+E47-2*PI()</f>
+        <f t="shared" ref="F47" si="305">+E47-2*PI()</f>
         <v>50.819582110290881</v>
       </c>
       <c r="G47" s="4">
-        <f t="shared" ref="G47" si="305">+F47-2*PI()</f>
+        <f t="shared" ref="G47" si="306">+F47-2*PI()</f>
         <v>44.536396803111295</v>
       </c>
       <c r="H47" s="4">
-        <f t="shared" ref="H47" si="306">+G47-2*PI()</f>
+        <f t="shared" ref="H47" si="307">+G47-2*PI()</f>
         <v>38.253211495931708</v>
       </c>
       <c r="I47" s="4">
@@ -24153,59 +24179,59 @@
         <v>31.970026188752122</v>
       </c>
       <c r="J47" s="4">
-        <f t="shared" ref="J47" si="307">+I47-2*PI()</f>
+        <f t="shared" ref="J47" si="308">+I47-2*PI()</f>
         <v>25.686840881572536</v>
       </c>
       <c r="K47" s="4">
-        <f t="shared" ref="K47" si="308">+J47-2*PI()</f>
+        <f t="shared" ref="K47" si="309">+J47-2*PI()</f>
         <v>19.40365557439295</v>
       </c>
       <c r="L47" s="4">
-        <f t="shared" ref="L47" si="309">+K47-2*PI()</f>
+        <f t="shared" ref="L47" si="310">+K47-2*PI()</f>
         <v>13.120470267213364</v>
       </c>
       <c r="M47" s="4">
-        <f t="shared" ref="M47" si="310">+L47-2*PI()</f>
+        <f t="shared" ref="M47" si="311">+L47-2*PI()</f>
         <v>6.8372849600337773</v>
       </c>
       <c r="N47" s="4">
-        <f t="shared" ref="N47" si="311">+M47-2*PI()</f>
+        <f t="shared" ref="N47" si="312">+M47-2*PI()</f>
         <v>0.55409965285419105</v>
       </c>
       <c r="O47" s="4">
-        <f t="shared" ref="O47" si="312">+N47-2*PI()</f>
+        <f t="shared" ref="O47" si="313">+N47-2*PI()</f>
         <v>-5.7290856543253952</v>
       </c>
       <c r="P47" s="4">
-        <f t="shared" ref="P47" si="313">+O47-2*PI()</f>
+        <f t="shared" ref="P47" si="314">+O47-2*PI()</f>
         <v>-12.012270961504981</v>
       </c>
       <c r="Q47" s="4">
-        <f t="shared" ref="Q47" si="314">+P47-2*PI()</f>
+        <f t="shared" ref="Q47" si="315">+P47-2*PI()</f>
         <v>-18.295456268684568</v>
       </c>
       <c r="R47" s="4">
-        <f t="shared" ref="R47" si="315">+Q47-2*PI()</f>
+        <f t="shared" ref="R47" si="316">+Q47-2*PI()</f>
         <v>-24.578641575864154</v>
       </c>
       <c r="S47" s="4">
-        <f t="shared" ref="S47" si="316">+R47-2*PI()</f>
+        <f t="shared" ref="S47" si="317">+R47-2*PI()</f>
         <v>-30.86182688304374</v>
       </c>
       <c r="T47" s="4">
-        <f t="shared" ref="T47" si="317">+S47-2*PI()</f>
+        <f t="shared" ref="T47" si="318">+S47-2*PI()</f>
         <v>-37.145012190223326</v>
       </c>
       <c r="U47" s="4">
-        <f t="shared" ref="U47" si="318">+T47-2*PI()</f>
+        <f t="shared" ref="U47" si="319">+T47-2*PI()</f>
         <v>-43.428197497402913</v>
       </c>
       <c r="V47" s="4">
-        <f t="shared" ref="V47" si="319">+U47-2*PI()</f>
+        <f t="shared" ref="V47" si="320">+U47-2*PI()</f>
         <v>-49.711382804582499</v>
       </c>
       <c r="W47" s="4">
-        <f t="shared" ref="W47" si="320">+V47-2*PI()</f>
+        <f t="shared" ref="W47" si="321">+V47-2*PI()</f>
         <v>-55.994568111762085</v>
       </c>
     </row>
@@ -24213,35 +24239,35 @@
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="G48">
-        <f t="shared" ref="G48:N48" si="321">2*PI()/G47</f>
+        <f t="shared" ref="G48:N48" si="322">2*PI()/G47</f>
         <v>0.14107978548324424</v>
       </c>
       <c r="H48">
-        <f t="shared" si="321"/>
+        <f t="shared" si="322"/>
         <v>0.16425249179007659</v>
       </c>
       <c r="I48">
-        <f t="shared" si="321"/>
+        <f t="shared" si="322"/>
         <v>0.19653363028492521</v>
       </c>
       <c r="J48">
-        <f t="shared" si="321"/>
+        <f t="shared" si="322"/>
         <v>0.24460716427324763</v>
       </c>
       <c r="K48">
-        <f t="shared" si="321"/>
+        <f t="shared" si="322"/>
         <v>0.32381451438828468</v>
       </c>
       <c r="L48">
-        <f t="shared" si="321"/>
+        <f t="shared" si="322"/>
         <v>0.47888415424259501</v>
       </c>
       <c r="M48">
-        <f t="shared" si="321"/>
+        <f t="shared" si="322"/>
         <v>0.91895911080303228</v>
       </c>
       <c r="N48" s="12">
-        <f t="shared" si="321"/>
+        <f t="shared" si="322"/>
         <v>11.339449997513317</v>
       </c>
       <c r="O48">
@@ -24261,23 +24287,23 @@
         <v>-0.25563598735861698</v>
       </c>
       <c r="S48">
-        <f t="shared" ref="S48:W48" si="322">2*PI()/S47</f>
+        <f t="shared" ref="S48:W48" si="323">2*PI()/S47</f>
         <v>-0.20359084155940638</v>
       </c>
       <c r="T48">
-        <f t="shared" si="322"/>
+        <f t="shared" si="323"/>
         <v>-0.16915286701220517</v>
       </c>
       <c r="U48">
-        <f t="shared" si="322"/>
+        <f t="shared" si="323"/>
         <v>-0.1446798547776553</v>
       </c>
       <c r="V48">
-        <f t="shared" si="322"/>
+        <f t="shared" si="323"/>
         <v>-0.12639329169094024</v>
       </c>
       <c r="W48">
-        <f t="shared" si="322"/>
+        <f t="shared" si="323"/>
         <v>-0.11221062183458033</v>
       </c>
     </row>
@@ -24289,7 +24315,7 @@
         <v>9.5578000000000003</v>
       </c>
       <c r="C49" s="15">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>240.10591338364912</v>
       </c>
       <c r="D49" s="15">
@@ -24297,19 +24323,19 @@
         <v>76.743095396979868</v>
       </c>
       <c r="E49" s="15">
-        <f t="shared" ref="E49:W49" si="323">+D49-2*PI()</f>
+        <f t="shared" ref="E49:W49" si="324">+D49-2*PI()</f>
         <v>70.459910089800275</v>
       </c>
       <c r="F49" s="15">
-        <f t="shared" si="323"/>
+        <f t="shared" si="324"/>
         <v>64.176724782620681</v>
       </c>
       <c r="G49" s="15">
-        <f t="shared" si="323"/>
+        <f t="shared" si="324"/>
         <v>57.893539475441095</v>
       </c>
       <c r="H49" s="15">
-        <f t="shared" si="323"/>
+        <f t="shared" si="324"/>
         <v>51.610354168261509</v>
       </c>
       <c r="I49" s="15">
@@ -24317,59 +24343,59 @@
         <v>45.327168861081923</v>
       </c>
       <c r="J49" s="15">
-        <f t="shared" si="323"/>
+        <f t="shared" si="324"/>
         <v>39.043983553902336</v>
       </c>
       <c r="K49" s="15">
-        <f t="shared" si="323"/>
+        <f t="shared" si="324"/>
         <v>32.76079824672275</v>
       </c>
       <c r="L49" s="15">
-        <f t="shared" si="323"/>
+        <f t="shared" si="324"/>
         <v>26.477612939543164</v>
       </c>
       <c r="M49" s="15">
-        <f t="shared" si="323"/>
+        <f t="shared" si="324"/>
         <v>20.194427632363578</v>
       </c>
       <c r="N49" s="15">
-        <f t="shared" si="323"/>
+        <f t="shared" si="324"/>
         <v>13.911242325183991</v>
       </c>
       <c r="O49" s="15">
-        <f t="shared" si="323"/>
+        <f t="shared" si="324"/>
         <v>7.6280570180044052</v>
       </c>
       <c r="P49" s="15">
-        <f t="shared" si="323"/>
+        <f t="shared" si="324"/>
         <v>1.3448717108248189</v>
       </c>
       <c r="Q49" s="15">
-        <f t="shared" si="323"/>
+        <f t="shared" si="324"/>
         <v>-4.9383135963547673</v>
       </c>
       <c r="R49" s="15">
-        <f t="shared" si="323"/>
+        <f t="shared" si="324"/>
         <v>-11.221498903534354</v>
       </c>
       <c r="S49" s="15">
-        <f t="shared" si="323"/>
+        <f t="shared" si="324"/>
         <v>-17.50468421071394</v>
       </c>
       <c r="T49" s="15">
-        <f t="shared" si="323"/>
+        <f t="shared" si="324"/>
         <v>-23.787869517893526</v>
       </c>
       <c r="U49" s="15">
-        <f t="shared" si="323"/>
+        <f t="shared" si="324"/>
         <v>-30.071054825073112</v>
       </c>
       <c r="V49" s="15">
-        <f t="shared" si="323"/>
+        <f t="shared" si="324"/>
         <v>-36.354240132252698</v>
       </c>
       <c r="W49" s="15">
-        <f t="shared" si="323"/>
+        <f t="shared" si="324"/>
         <v>-42.637425439432285</v>
       </c>
     </row>
@@ -24377,63 +24403,63 @@
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="I50">
-        <f t="shared" ref="I50:W50" si="324">2*PI()/I49</f>
+        <f t="shared" ref="I50:W50" si="325">2*PI()/I49</f>
         <v>0.1386185253801358</v>
       </c>
       <c r="J50">
-        <f t="shared" si="324"/>
+        <f t="shared" si="325"/>
         <v>0.16092582608804012</v>
       </c>
       <c r="K50">
-        <f t="shared" si="324"/>
+        <f t="shared" si="325"/>
         <v>0.19178975005006568</v>
       </c>
       <c r="L50">
-        <f t="shared" si="324"/>
+        <f t="shared" si="325"/>
         <v>0.23730180366055287</v>
       </c>
       <c r="M50">
-        <f t="shared" si="324"/>
+        <f t="shared" si="325"/>
         <v>0.31113460710865393</v>
       </c>
       <c r="N50">
-        <f t="shared" si="324"/>
+        <f t="shared" si="325"/>
         <v>0.45166241521110762</v>
       </c>
       <c r="O50" s="17">
-        <f t="shared" si="324"/>
+        <f t="shared" si="325"/>
         <v>0.82369406683110324</v>
       </c>
       <c r="P50" s="12">
-        <f t="shared" si="324"/>
+        <f t="shared" si="325"/>
         <v>4.6719588616568242</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="324"/>
+        <f t="shared" si="325"/>
         <v>-1.2723342057129665</v>
       </c>
       <c r="R50">
-        <f t="shared" si="324"/>
+        <f t="shared" si="325"/>
         <v>-0.55992388906268287</v>
       </c>
       <c r="S50">
-        <f t="shared" si="324"/>
+        <f t="shared" si="325"/>
         <v>-0.35894308240841566</v>
       </c>
       <c r="T50">
-        <f t="shared" si="324"/>
+        <f t="shared" si="325"/>
         <v>-0.26413400756437216</v>
       </c>
       <c r="U50">
-        <f t="shared" si="324"/>
+        <f t="shared" si="325"/>
         <v>-0.20894462611071077</v>
       </c>
       <c r="V50">
-        <f t="shared" si="324"/>
+        <f t="shared" si="325"/>
         <v>-0.17283225517359335</v>
       </c>
       <c r="W50">
-        <f t="shared" si="324"/>
+        <f t="shared" si="325"/>
         <v>-0.14736314968419084</v>
       </c>
     </row>
@@ -24452,19 +24478,19 @@
         <v>76.070659541567451</v>
       </c>
       <c r="E51" s="4">
-        <f t="shared" ref="E51" si="325">+D51-2*PI()</f>
+        <f t="shared" ref="E51" si="326">+D51-2*PI()</f>
         <v>69.787474234387872</v>
       </c>
       <c r="F51" s="4">
-        <f t="shared" ref="F51" si="326">+E51-2*PI()</f>
+        <f t="shared" ref="F51" si="327">+E51-2*PI()</f>
         <v>63.504288927208286</v>
       </c>
       <c r="G51" s="4">
-        <f t="shared" ref="G51" si="327">+F51-2*PI()</f>
+        <f t="shared" ref="G51" si="328">+F51-2*PI()</f>
         <v>57.2211036200287</v>
       </c>
       <c r="H51" s="4">
-        <f t="shared" ref="H51" si="328">+G51-2*PI()</f>
+        <f t="shared" ref="H51" si="329">+G51-2*PI()</f>
         <v>50.937918312849114</v>
       </c>
       <c r="I51" s="4">
@@ -24472,59 +24498,59 @@
         <v>44.654733005669527</v>
       </c>
       <c r="J51" s="4">
-        <f t="shared" ref="J51" si="329">+I51-2*PI()</f>
+        <f t="shared" ref="J51" si="330">+I51-2*PI()</f>
         <v>38.371547698489941</v>
       </c>
       <c r="K51" s="4">
-        <f t="shared" ref="K51" si="330">+J51-2*PI()</f>
+        <f t="shared" ref="K51" si="331">+J51-2*PI()</f>
         <v>32.088362391310355</v>
       </c>
       <c r="L51" s="4">
-        <f t="shared" ref="L51" si="331">+K51-2*PI()</f>
+        <f t="shared" ref="L51" si="332">+K51-2*PI()</f>
         <v>25.805177084130769</v>
       </c>
       <c r="M51" s="4">
-        <f t="shared" ref="M51" si="332">+L51-2*PI()</f>
+        <f t="shared" ref="M51" si="333">+L51-2*PI()</f>
         <v>19.521991776951182</v>
       </c>
       <c r="N51" s="4">
-        <f t="shared" ref="N51" si="333">+M51-2*PI()</f>
+        <f t="shared" ref="N51" si="334">+M51-2*PI()</f>
         <v>13.238806469771596</v>
       </c>
       <c r="O51" s="4">
-        <f t="shared" ref="O51" si="334">+N51-2*PI()</f>
+        <f t="shared" ref="O51" si="335">+N51-2*PI()</f>
         <v>6.9556211625920099</v>
       </c>
       <c r="P51" s="4">
-        <f t="shared" ref="P51" si="335">+O51-2*PI()</f>
+        <f t="shared" ref="P51" si="336">+O51-2*PI()</f>
         <v>0.67243585541242368</v>
       </c>
       <c r="Q51" s="4">
-        <f t="shared" ref="Q51" si="336">+P51-2*PI()</f>
+        <f t="shared" ref="Q51" si="337">+P51-2*PI()</f>
         <v>-5.6107494517671626</v>
       </c>
       <c r="R51" s="4">
-        <f t="shared" ref="R51" si="337">+Q51-2*PI()</f>
+        <f t="shared" ref="R51" si="338">+Q51-2*PI()</f>
         <v>-11.893934758946749</v>
       </c>
       <c r="S51" s="4">
-        <f t="shared" ref="S51" si="338">+R51-2*PI()</f>
+        <f t="shared" ref="S51" si="339">+R51-2*PI()</f>
         <v>-18.177120066126335</v>
       </c>
       <c r="T51" s="4">
-        <f t="shared" ref="T51" si="339">+S51-2*PI()</f>
+        <f t="shared" ref="T51" si="340">+S51-2*PI()</f>
         <v>-24.460305373305921</v>
       </c>
       <c r="U51" s="4">
-        <f t="shared" ref="U51" si="340">+T51-2*PI()</f>
+        <f t="shared" ref="U51" si="341">+T51-2*PI()</f>
         <v>-30.743490680485507</v>
       </c>
       <c r="V51" s="4">
-        <f t="shared" ref="V51" si="341">+U51-2*PI()</f>
+        <f t="shared" ref="V51" si="342">+U51-2*PI()</f>
         <v>-37.026675987665094</v>
       </c>
       <c r="W51" s="4">
-        <f t="shared" ref="W51" si="342">+V51-2*PI()</f>
+        <f t="shared" ref="W51" si="343">+V51-2*PI()</f>
         <v>-43.30986129484468</v>
       </c>
     </row>
@@ -24532,43 +24558,43 @@
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="E52" s="23">
-        <f t="shared" ref="E52:N52" si="343">2*PI()/E51</f>
+        <f t="shared" ref="E52:N52" si="344">2*PI()/E51</f>
         <v>9.0033138125574091E-2</v>
       </c>
       <c r="F52" s="23">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>9.8941117416206009E-2</v>
       </c>
       <c r="G52" s="23">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>0.10980538489614743</v>
       </c>
       <c r="H52" s="23">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>0.12334986421293644</v>
       </c>
       <c r="I52" s="23">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>0.14070592038657695</v>
       </c>
       <c r="J52" s="23">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>0.16374594417068175</v>
       </c>
       <c r="K52" s="23">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>0.19580884903247964</v>
       </c>
       <c r="L52" s="23">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>0.24348545591045423</v>
       </c>
       <c r="M52" s="23">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>0.32185165217608003</v>
       </c>
       <c r="N52" s="23">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>0.47460360732110524</v>
       </c>
       <c r="O52" s="23">
@@ -24588,23 +24614,23 @@
         <v>-0.52826801512874488</v>
       </c>
       <c r="S52">
-        <f t="shared" ref="S52:W52" si="344">2*PI()/S51</f>
+        <f t="shared" ref="S52:W52" si="345">2*PI()/S51</f>
         <v>-0.34566451034718698</v>
       </c>
       <c r="T52">
-        <f t="shared" si="344"/>
+        <f t="shared" si="345"/>
         <v>-0.25687272547449741</v>
       </c>
       <c r="U52">
-        <f t="shared" si="344"/>
+        <f t="shared" si="345"/>
         <v>-0.20437449255454426</v>
       </c>
       <c r="V52">
-        <f t="shared" si="344"/>
+        <f t="shared" si="345"/>
         <v>-0.16969347476054128</v>
       </c>
       <c r="W52">
-        <f t="shared" si="344"/>
+        <f t="shared" si="345"/>
         <v>-0.1450751657781803</v>
       </c>
     </row>
@@ -24623,19 +24649,19 @@
         <v>40.388855264727226</v>
       </c>
       <c r="E53" s="4">
-        <f t="shared" ref="E53" si="345">+D53-2*PI()</f>
+        <f t="shared" ref="E53" si="346">+D53-2*PI()</f>
         <v>34.10566995754764</v>
       </c>
       <c r="F53" s="4">
-        <f t="shared" ref="F53" si="346">+E53-2*PI()</f>
+        <f t="shared" ref="F53" si="347">+E53-2*PI()</f>
         <v>27.822484650368054</v>
       </c>
       <c r="G53" s="4">
-        <f t="shared" ref="G53" si="347">+F53-2*PI()</f>
+        <f t="shared" ref="G53" si="348">+F53-2*PI()</f>
         <v>21.539299343188468</v>
       </c>
       <c r="H53" s="4">
-        <f t="shared" ref="H53" si="348">+G53-2*PI()</f>
+        <f t="shared" ref="H53" si="349">+G53-2*PI()</f>
         <v>15.256114036008881</v>
       </c>
       <c r="I53" s="4">
@@ -24643,59 +24669,59 @@
         <v>8.9729287288292952</v>
       </c>
       <c r="J53" s="4">
-        <f t="shared" ref="J53" si="349">+I53-2*PI()</f>
+        <f t="shared" ref="J53" si="350">+I53-2*PI()</f>
         <v>2.6897434216497089</v>
       </c>
       <c r="K53" s="4">
-        <f t="shared" ref="K53" si="350">+J53-2*PI()</f>
+        <f t="shared" ref="K53" si="351">+J53-2*PI()</f>
         <v>-3.5934418855298773</v>
       </c>
       <c r="L53" s="4">
-        <f t="shared" ref="L53" si="351">+K53-2*PI()</f>
+        <f t="shared" ref="L53" si="352">+K53-2*PI()</f>
         <v>-9.8766271927094635</v>
       </c>
       <c r="M53" s="4">
-        <f t="shared" ref="M53" si="352">+L53-2*PI()</f>
+        <f t="shared" ref="M53" si="353">+L53-2*PI()</f>
         <v>-16.15981249988905</v>
       </c>
       <c r="N53" s="4">
-        <f t="shared" ref="N53" si="353">+M53-2*PI()</f>
+        <f t="shared" ref="N53" si="354">+M53-2*PI()</f>
         <v>-22.442997807068636</v>
       </c>
       <c r="O53" s="4">
-        <f t="shared" ref="O53" si="354">+N53-2*PI()</f>
+        <f t="shared" ref="O53" si="355">+N53-2*PI()</f>
         <v>-28.726183114248222</v>
       </c>
       <c r="P53" s="4">
-        <f t="shared" ref="P53" si="355">+O53-2*PI()</f>
+        <f t="shared" ref="P53" si="356">+O53-2*PI()</f>
         <v>-35.009368421427808</v>
       </c>
       <c r="Q53" s="4">
-        <f t="shared" ref="Q53" si="356">+P53-2*PI()</f>
+        <f t="shared" ref="Q53" si="357">+P53-2*PI()</f>
         <v>-41.292553728607395</v>
       </c>
       <c r="R53" s="4">
-        <f t="shared" ref="R53" si="357">+Q53-2*PI()</f>
+        <f t="shared" ref="R53" si="358">+Q53-2*PI()</f>
         <v>-47.575739035786981</v>
       </c>
       <c r="S53" s="4">
-        <f t="shared" ref="S53" si="358">+R53-2*PI()</f>
+        <f t="shared" ref="S53" si="359">+R53-2*PI()</f>
         <v>-53.858924342966567</v>
       </c>
       <c r="T53" s="4">
-        <f t="shared" ref="T53" si="359">+S53-2*PI()</f>
+        <f t="shared" ref="T53" si="360">+S53-2*PI()</f>
         <v>-60.142109650146153</v>
       </c>
       <c r="U53" s="4">
-        <f t="shared" ref="U53" si="360">+T53-2*PI()</f>
+        <f t="shared" ref="U53" si="361">+T53-2*PI()</f>
         <v>-66.425294957325747</v>
       </c>
       <c r="V53" s="4">
-        <f t="shared" ref="V53" si="361">+U53-2*PI()</f>
+        <f t="shared" ref="V53" si="362">+U53-2*PI()</f>
         <v>-72.70848026450534</v>
       </c>
       <c r="W53" s="4">
-        <f t="shared" ref="W53" si="362">+V53-2*PI()</f>
+        <f t="shared" ref="W53" si="363">+V53-2*PI()</f>
         <v>-78.991665571684933</v>
       </c>
     </row>
@@ -24703,35 +24729,35 @@
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="G54">
-        <f t="shared" ref="G54:N54" si="363">2*PI()/G53</f>
+        <f t="shared" ref="G54:N54" si="364">2*PI()/G53</f>
         <v>0.29170797095433676</v>
       </c>
       <c r="H54">
-        <f t="shared" si="363"/>
+        <f t="shared" si="364"/>
         <v>0.41184703341554968</v>
       </c>
       <c r="I54">
-        <f t="shared" si="363"/>
+        <f t="shared" si="364"/>
         <v>0.70023795987504278</v>
       </c>
       <c r="J54" s="12">
-        <f t="shared" si="363"/>
+        <f t="shared" si="364"/>
         <v>2.3359794308283504</v>
       </c>
       <c r="K54">
-        <f t="shared" si="363"/>
+        <f t="shared" si="364"/>
         <v>-1.7485145182062929</v>
       </c>
       <c r="L54">
-        <f t="shared" si="363"/>
+        <f t="shared" si="364"/>
         <v>-0.63616710285648781</v>
       </c>
       <c r="M54">
-        <f t="shared" si="363"/>
+        <f t="shared" si="364"/>
         <v>-0.38881548329986659</v>
       </c>
       <c r="N54">
-        <f t="shared" si="363"/>
+        <f t="shared" si="364"/>
         <v>-0.27996194453134232</v>
       </c>
       <c r="O54">
@@ -24751,23 +24777,23 @@
         <v>-0.13206700378218628</v>
       </c>
       <c r="S54">
-        <f t="shared" ref="S54:W54" si="364">2*PI()/S53</f>
+        <f t="shared" ref="S54:W54" si="365">2*PI()/S53</f>
         <v>-0.11666005929062166</v>
       </c>
       <c r="T54">
-        <f t="shared" si="364"/>
+        <f t="shared" si="365"/>
         <v>-0.10447231305535551</v>
       </c>
       <c r="U54">
-        <f t="shared" si="364"/>
+        <f t="shared" si="365"/>
         <v>-9.459025076540728E-2</v>
       </c>
       <c r="V54">
-        <f t="shared" si="364"/>
+        <f t="shared" si="365"/>
         <v>-8.6416127586796745E-2</v>
       </c>
       <c r="W54">
-        <f t="shared" si="364"/>
+        <f t="shared" si="365"/>
         <v>-7.9542382879338028E-2</v>
       </c>
     </row>
@@ -24779,7 +24805,7 @@
         <v>6.859</v>
       </c>
       <c r="C55" s="10">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>334.58001150871002</v>
       </c>
       <c r="D55" s="10">
@@ -24787,19 +24813,19 @@
         <v>89.535784528706159</v>
       </c>
       <c r="E55" s="10">
-        <f t="shared" ref="E55:W55" si="365">+D55-2*PI()</f>
+        <f t="shared" ref="E55:W55" si="366">+D55-2*PI()</f>
         <v>83.252599221526566</v>
       </c>
       <c r="F55" s="10">
-        <f t="shared" si="365"/>
+        <f t="shared" si="366"/>
         <v>76.969413914346973</v>
       </c>
       <c r="G55" s="10">
-        <f t="shared" si="365"/>
+        <f t="shared" si="366"/>
         <v>70.686228607167379</v>
       </c>
       <c r="H55" s="10">
-        <f t="shared" si="365"/>
+        <f t="shared" si="366"/>
         <v>64.403043299987786</v>
       </c>
       <c r="I55" s="10">
@@ -24807,59 +24833,59 @@
         <v>58.1198579928082</v>
       </c>
       <c r="J55" s="10">
-        <f t="shared" si="365"/>
+        <f t="shared" si="366"/>
         <v>51.836672685628614</v>
       </c>
       <c r="K55" s="10">
-        <f t="shared" si="365"/>
+        <f t="shared" si="366"/>
         <v>45.553487378449027</v>
       </c>
       <c r="L55" s="10">
-        <f t="shared" si="365"/>
+        <f t="shared" si="366"/>
         <v>39.270302071269441</v>
       </c>
       <c r="M55" s="10">
-        <f t="shared" si="365"/>
+        <f t="shared" si="366"/>
         <v>32.987116764089855</v>
       </c>
       <c r="N55" s="10">
-        <f t="shared" si="365"/>
+        <f t="shared" si="366"/>
         <v>26.703931456910269</v>
       </c>
       <c r="O55" s="10">
-        <f t="shared" si="365"/>
+        <f t="shared" si="366"/>
         <v>20.420746149730682</v>
       </c>
       <c r="P55" s="10">
-        <f t="shared" si="365"/>
+        <f t="shared" si="366"/>
         <v>14.137560842551096</v>
       </c>
       <c r="Q55" s="10">
-        <f t="shared" si="365"/>
+        <f t="shared" si="366"/>
         <v>7.8543755353715099</v>
       </c>
       <c r="R55" s="10">
-        <f t="shared" si="365"/>
+        <f t="shared" si="366"/>
         <v>1.5711902281919237</v>
       </c>
       <c r="S55" s="10">
-        <f t="shared" si="365"/>
+        <f t="shared" si="366"/>
         <v>-4.7119950789876626</v>
       </c>
       <c r="T55" s="10">
-        <f t="shared" si="365"/>
+        <f t="shared" si="366"/>
         <v>-10.995180386167249</v>
       </c>
       <c r="U55" s="10">
-        <f t="shared" si="365"/>
+        <f t="shared" si="366"/>
         <v>-17.278365693346835</v>
       </c>
       <c r="V55" s="10">
-        <f t="shared" si="365"/>
+        <f t="shared" si="366"/>
         <v>-23.561551000526421</v>
       </c>
       <c r="W55" s="10">
-        <f t="shared" si="365"/>
+        <f t="shared" si="366"/>
         <v>-29.844736307706007</v>
       </c>
     </row>
@@ -24868,27 +24894,27 @@
       <c r="B56" s="2"/>
       <c r="E56" s="13"/>
       <c r="I56">
-        <f t="shared" ref="I56:N56" si="366">2*PI()/I55</f>
+        <f t="shared" ref="I56:N56" si="367">2*PI()/I55</f>
         <v>0.10810737541645531</v>
       </c>
       <c r="J56">
-        <f t="shared" si="366"/>
+        <f t="shared" si="367"/>
         <v>0.12121120013402324</v>
       </c>
       <c r="K56">
-        <f t="shared" si="366"/>
+        <f t="shared" si="367"/>
         <v>0.13792984179191753</v>
       </c>
       <c r="L56">
-        <f t="shared" si="366"/>
+        <f t="shared" si="367"/>
         <v>0.15999839511742461</v>
       </c>
       <c r="M56">
-        <f t="shared" si="366"/>
+        <f t="shared" si="367"/>
         <v>0.19047391598709021</v>
       </c>
       <c r="N56">
-        <f t="shared" si="366"/>
+        <f t="shared" si="367"/>
         <v>0.23529064689662632</v>
       </c>
       <c r="O56">
@@ -24908,23 +24934,23 @@
         <v>3.998997189799276</v>
       </c>
       <c r="S56">
-        <f t="shared" ref="S56:W56" si="367">2*PI()/S55</f>
+        <f t="shared" ref="S56:W56" si="368">2*PI()/S55</f>
         <v>-1.3334447939469161</v>
       </c>
       <c r="T56">
-        <f t="shared" si="367"/>
+        <f t="shared" si="368"/>
         <v>-0.57144904280827435</v>
       </c>
       <c r="U56">
-        <f t="shared" si="367"/>
+        <f t="shared" si="368"/>
         <v>-0.36364465359122328</v>
       </c>
       <c r="V56">
-        <f t="shared" si="367"/>
+        <f t="shared" si="368"/>
         <v>-0.26667112479306665</v>
       </c>
       <c r="W56">
-        <f t="shared" si="367"/>
+        <f t="shared" si="368"/>
         <v>-0.21052909439033132</v>
       </c>
       <c r="Y56" t="s">
@@ -24939,7 +24965,7 @@
         <v>27.667000000000002</v>
       </c>
       <c r="C57" s="8">
-        <f t="shared" ref="C57:C61" si="368">2*PI()/$B57*$B$1</f>
+        <f t="shared" ref="C57:C61" si="369">2*PI()/$B57*$B$1</f>
         <v>82.946625905889377</v>
       </c>
       <c r="D57" s="8">
@@ -24947,19 +24973,19 @@
         <v>76.663440598709798</v>
       </c>
       <c r="E57" s="8">
-        <f t="shared" ref="E57:S57" si="369">+D57-2*PI()</f>
+        <f t="shared" ref="E57:S57" si="370">+D57-2*PI()</f>
         <v>70.380255291530204</v>
       </c>
       <c r="F57" s="8">
-        <f t="shared" si="369"/>
+        <f t="shared" si="370"/>
         <v>64.097069984350611</v>
       </c>
       <c r="G57" s="8">
-        <f t="shared" si="369"/>
+        <f t="shared" si="370"/>
         <v>57.813884677171025</v>
       </c>
       <c r="H57" s="8">
-        <f t="shared" si="369"/>
+        <f t="shared" si="370"/>
         <v>51.530699369991439</v>
       </c>
       <c r="I57" s="8">
@@ -24967,57 +24993,57 @@
         <v>45.247514062811852</v>
       </c>
       <c r="J57" s="8">
-        <f t="shared" si="369"/>
+        <f t="shared" si="370"/>
         <v>38.964328755632266</v>
       </c>
       <c r="K57" s="8">
-        <f t="shared" si="369"/>
+        <f t="shared" si="370"/>
         <v>32.68114344845268</v>
       </c>
       <c r="L57" s="8">
-        <f t="shared" si="369"/>
+        <f t="shared" si="370"/>
         <v>26.397958141273094</v>
       </c>
       <c r="M57" s="8">
-        <f t="shared" si="369"/>
+        <f t="shared" si="370"/>
         <v>20.114772834093507</v>
       </c>
       <c r="N57" s="8">
-        <f t="shared" si="369"/>
+        <f t="shared" si="370"/>
         <v>13.831587526913921</v>
       </c>
       <c r="O57" s="8">
-        <f t="shared" si="369"/>
+        <f t="shared" si="370"/>
         <v>7.548402219734335</v>
       </c>
       <c r="P57" s="8">
-        <f t="shared" si="369"/>
+        <f t="shared" si="370"/>
         <v>1.2652169125547488</v>
       </c>
       <c r="Q57" s="8">
-        <f t="shared" si="369"/>
+        <f t="shared" si="370"/>
         <v>-5.0179683946248375</v>
       </c>
       <c r="R57" s="8">
-        <f t="shared" si="369"/>
+        <f t="shared" si="370"/>
         <v>-11.301153701804424</v>
       </c>
       <c r="S57" s="8">
-        <f t="shared" si="369"/>
+        <f t="shared" si="370"/>
         <v>-17.58433900898401</v>
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="K58">
-        <f t="shared" ref="K58:M58" si="370">2*PI()/K57</f>
+        <f t="shared" ref="K58:M58" si="371">2*PI()/K57</f>
         <v>0.19225720535421076</v>
       </c>
       <c r="L58">
-        <f t="shared" si="370"/>
+        <f t="shared" si="371"/>
         <v>0.23801785250033611</v>
       </c>
       <c r="M58">
-        <f t="shared" si="370"/>
+        <f t="shared" si="371"/>
         <v>0.3123667047598922</v>
       </c>
       <c r="N58">
@@ -25049,7 +25075,7 @@
         <v>27.297999999999998</v>
       </c>
       <c r="C59" s="8">
-        <f t="shared" si="368"/>
+        <f t="shared" si="369"/>
         <v>84.067854749001455</v>
       </c>
       <c r="D59" s="8">
@@ -25057,19 +25083,19 @@
         <v>77.784669441821876</v>
       </c>
       <c r="E59" s="8">
-        <f t="shared" ref="E59:S59" si="371">+D59-2*PI()</f>
+        <f t="shared" ref="E59:S59" si="372">+D59-2*PI()</f>
         <v>71.501484134642283</v>
       </c>
       <c r="F59" s="8">
-        <f t="shared" si="371"/>
+        <f t="shared" si="372"/>
         <v>65.218298827462689</v>
       </c>
       <c r="G59" s="8">
-        <f t="shared" si="371"/>
+        <f t="shared" si="372"/>
         <v>58.935113520283103</v>
       </c>
       <c r="H59" s="8">
-        <f t="shared" si="371"/>
+        <f t="shared" si="372"/>
         <v>52.651928213103517</v>
       </c>
       <c r="I59" s="8">
@@ -25077,43 +25103,43 @@
         <v>46.368742905923931</v>
       </c>
       <c r="J59" s="8">
-        <f t="shared" si="371"/>
+        <f t="shared" si="372"/>
         <v>40.085557598744344</v>
       </c>
       <c r="K59" s="8">
-        <f t="shared" si="371"/>
+        <f t="shared" si="372"/>
         <v>33.802372291564758</v>
       </c>
       <c r="L59" s="8">
-        <f t="shared" si="371"/>
+        <f t="shared" si="372"/>
         <v>27.519186984385172</v>
       </c>
       <c r="M59" s="8">
-        <f t="shared" si="371"/>
+        <f t="shared" si="372"/>
         <v>21.236001677205586</v>
       </c>
       <c r="N59" s="8">
-        <f t="shared" si="371"/>
+        <f t="shared" si="372"/>
         <v>14.952816370026</v>
       </c>
       <c r="O59" s="8">
-        <f t="shared" si="371"/>
+        <f t="shared" si="372"/>
         <v>8.6696310628464133</v>
       </c>
       <c r="P59" s="8">
-        <f t="shared" si="371"/>
+        <f t="shared" si="372"/>
         <v>2.386445755666827</v>
       </c>
       <c r="Q59" s="8">
-        <f t="shared" si="371"/>
+        <f t="shared" si="372"/>
         <v>-3.8967395515127592</v>
       </c>
       <c r="R59" s="8">
-        <f t="shared" si="371"/>
+        <f t="shared" si="372"/>
         <v>-10.179924858692345</v>
       </c>
       <c r="S59" s="8">
-        <f t="shared" si="371"/>
+        <f t="shared" si="372"/>
         <v>-16.463110165871932</v>
       </c>
     </row>
@@ -25123,15 +25149,15 @@
         <v>303.88134400000001</v>
       </c>
       <c r="K60">
-        <f t="shared" ref="K60:M60" si="372">2*PI()/K59</f>
+        <f t="shared" ref="K60:M60" si="373">2*PI()/K59</f>
         <v>0.18588001022483056</v>
       </c>
       <c r="L60">
-        <f t="shared" si="372"/>
+        <f t="shared" si="373"/>
         <v>0.22832016479065192</v>
       </c>
       <c r="M60">
-        <f t="shared" si="372"/>
+        <f t="shared" si="373"/>
         <v>0.29587421411460263</v>
       </c>
       <c r="N60">
@@ -25164,7 +25190,7 @@
         <v>26.95</v>
       </c>
       <c r="C61" s="8">
-        <f t="shared" si="368"/>
+        <f t="shared" si="369"/>
         <v>85.153406268580397</v>
       </c>
       <c r="D61" s="8">
@@ -25172,19 +25198,19 @@
         <v>78.870220961400804</v>
       </c>
       <c r="E61" s="8">
-        <f t="shared" ref="E61:S61" si="373">+D61-2*PI()</f>
+        <f t="shared" ref="E61:S61" si="374">+D61-2*PI()</f>
         <v>72.587035654221211</v>
       </c>
       <c r="F61" s="8">
-        <f t="shared" si="373"/>
+        <f t="shared" si="374"/>
         <v>66.303850347041617</v>
       </c>
       <c r="G61" s="8">
-        <f t="shared" si="373"/>
+        <f t="shared" si="374"/>
         <v>60.020665039862031</v>
       </c>
       <c r="H61" s="8">
-        <f t="shared" si="373"/>
+        <f t="shared" si="374"/>
         <v>53.737479732682445</v>
       </c>
       <c r="I61" s="8">
@@ -25192,43 +25218,43 @@
         <v>47.454294425502859</v>
       </c>
       <c r="J61" s="8">
-        <f t="shared" si="373"/>
+        <f t="shared" si="374"/>
         <v>41.171109118323272</v>
       </c>
       <c r="K61" s="8">
-        <f t="shared" si="373"/>
+        <f t="shared" si="374"/>
         <v>34.887923811143686</v>
       </c>
       <c r="L61" s="8">
-        <f t="shared" si="373"/>
+        <f t="shared" si="374"/>
         <v>28.6047385039641</v>
       </c>
       <c r="M61" s="8">
-        <f t="shared" si="373"/>
+        <f t="shared" si="374"/>
         <v>22.321553196784514</v>
       </c>
       <c r="N61" s="8">
-        <f t="shared" si="373"/>
+        <f t="shared" si="374"/>
         <v>16.038367889604928</v>
       </c>
       <c r="O61" s="8">
-        <f t="shared" si="373"/>
+        <f t="shared" si="374"/>
         <v>9.7551825824253413</v>
       </c>
       <c r="P61" s="8">
-        <f t="shared" si="373"/>
+        <f t="shared" si="374"/>
         <v>3.4719972752457551</v>
       </c>
       <c r="Q61" s="8">
-        <f t="shared" si="373"/>
+        <f t="shared" si="374"/>
         <v>-2.8111880319338312</v>
       </c>
       <c r="R61" s="8">
-        <f t="shared" si="373"/>
+        <f t="shared" si="374"/>
         <v>-9.0943733391134174</v>
       </c>
       <c r="S61" s="8">
-        <f t="shared" si="373"/>
+        <f t="shared" si="374"/>
         <v>-15.377558646293004</v>
       </c>
     </row>
@@ -25238,19 +25264,19 @@
         <v>13.475</v>
       </c>
       <c r="K62">
-        <f t="shared" ref="K62:N62" si="374">2*PI()/K61</f>
+        <f t="shared" ref="K62:N62" si="375">2*PI()/K61</f>
         <v>0.180096280340209</v>
       </c>
       <c r="L62">
-        <f t="shared" si="374"/>
+        <f t="shared" si="375"/>
         <v>0.21965540102066833</v>
       </c>
       <c r="M62">
-        <f t="shared" si="374"/>
+        <f t="shared" si="375"/>
         <v>0.28148513016937809</v>
       </c>
       <c r="N62">
-        <f t="shared" si="374"/>
+        <f t="shared" si="375"/>
         <v>0.391759644773578</v>
       </c>
       <c r="O62">
@@ -25287,7 +25313,7 @@
         <v>27.384</v>
       </c>
       <c r="C63" s="8">
-        <f t="shared" ref="C63:C81" si="375">2*PI()/$B63*$B$1</f>
+        <f t="shared" ref="C63:C81" si="376">2*PI()/$B63*$B$1</f>
         <v>83.803837968822748</v>
       </c>
       <c r="D63" s="8">
@@ -25295,19 +25321,19 @@
         <v>77.520652661643169</v>
       </c>
       <c r="E63" s="8">
-        <f t="shared" ref="E63:S63" si="376">+D63-2*PI()</f>
+        <f t="shared" ref="E63:S63" si="377">+D63-2*PI()</f>
         <v>71.237467354463575</v>
       </c>
       <c r="F63" s="8">
-        <f t="shared" si="376"/>
+        <f t="shared" si="377"/>
         <v>64.954282047283982</v>
       </c>
       <c r="G63" s="8">
-        <f t="shared" si="376"/>
+        <f t="shared" si="377"/>
         <v>58.671096740104396</v>
       </c>
       <c r="H63" s="8">
-        <f t="shared" si="376"/>
+        <f t="shared" si="377"/>
         <v>52.38791143292481</v>
       </c>
       <c r="I63" s="8">
@@ -25315,43 +25341,43 @@
         <v>46.104726125745223</v>
       </c>
       <c r="J63" s="8">
-        <f t="shared" si="376"/>
+        <f t="shared" si="377"/>
         <v>39.821540818565637</v>
       </c>
       <c r="K63" s="8">
-        <f t="shared" si="376"/>
+        <f t="shared" si="377"/>
         <v>33.538355511386051</v>
       </c>
       <c r="L63" s="8">
-        <f t="shared" si="376"/>
+        <f t="shared" si="377"/>
         <v>27.255170204206465</v>
       </c>
       <c r="M63" s="8">
-        <f t="shared" si="376"/>
+        <f t="shared" si="377"/>
         <v>20.971984897026879</v>
       </c>
       <c r="N63" s="8">
-        <f t="shared" si="376"/>
+        <f t="shared" si="377"/>
         <v>14.688799589847292</v>
       </c>
       <c r="O63" s="8">
-        <f t="shared" si="376"/>
+        <f t="shared" si="377"/>
         <v>8.405614282667706</v>
       </c>
       <c r="P63" s="8">
-        <f t="shared" si="376"/>
+        <f t="shared" si="377"/>
         <v>2.1224289754881198</v>
       </c>
       <c r="Q63" s="8">
-        <f t="shared" si="376"/>
+        <f t="shared" si="377"/>
         <v>-4.1607563316914664</v>
       </c>
       <c r="R63" s="8">
-        <f t="shared" si="376"/>
+        <f t="shared" si="377"/>
         <v>-10.443941638871053</v>
       </c>
       <c r="S63" s="8">
-        <f t="shared" si="376"/>
+        <f t="shared" si="377"/>
         <v>-16.727126946050639</v>
       </c>
     </row>
@@ -25382,7 +25408,7 @@
         <v>27.667000000000002</v>
       </c>
       <c r="C65" s="8">
-        <f t="shared" si="375"/>
+        <f t="shared" si="376"/>
         <v>82.946625905889377</v>
       </c>
       <c r="D65" s="8">
@@ -25390,19 +25416,19 @@
         <v>76.663440598709798</v>
       </c>
       <c r="E65" s="8">
-        <f t="shared" ref="E65:S65" si="377">+D65-2*PI()</f>
+        <f t="shared" ref="E65:S65" si="378">+D65-2*PI()</f>
         <v>70.380255291530204</v>
       </c>
       <c r="F65" s="8">
-        <f t="shared" si="377"/>
+        <f t="shared" si="378"/>
         <v>64.097069984350611</v>
       </c>
       <c r="G65" s="8">
-        <f t="shared" si="377"/>
+        <f t="shared" si="378"/>
         <v>57.813884677171025</v>
       </c>
       <c r="H65" s="8">
-        <f t="shared" si="377"/>
+        <f t="shared" si="378"/>
         <v>51.530699369991439</v>
       </c>
       <c r="I65" s="8">
@@ -25410,43 +25436,43 @@
         <v>45.247514062811852</v>
       </c>
       <c r="J65" s="8">
-        <f t="shared" si="377"/>
+        <f t="shared" si="378"/>
         <v>38.964328755632266</v>
       </c>
       <c r="K65" s="8">
-        <f t="shared" si="377"/>
+        <f t="shared" si="378"/>
         <v>32.68114344845268</v>
       </c>
       <c r="L65" s="8">
-        <f t="shared" si="377"/>
+        <f t="shared" si="378"/>
         <v>26.397958141273094</v>
       </c>
       <c r="M65" s="8">
-        <f t="shared" si="377"/>
+        <f t="shared" si="378"/>
         <v>20.114772834093507</v>
       </c>
       <c r="N65" s="8">
-        <f t="shared" si="377"/>
+        <f t="shared" si="378"/>
         <v>13.831587526913921</v>
       </c>
       <c r="O65" s="8">
-        <f t="shared" si="377"/>
+        <f t="shared" si="378"/>
         <v>7.548402219734335</v>
       </c>
       <c r="P65" s="8">
-        <f t="shared" si="377"/>
+        <f t="shared" si="378"/>
         <v>1.2652169125547488</v>
       </c>
       <c r="Q65" s="8">
-        <f t="shared" si="377"/>
+        <f t="shared" si="378"/>
         <v>-5.0179683946248375</v>
       </c>
       <c r="R65" s="8">
-        <f t="shared" si="377"/>
+        <f t="shared" si="378"/>
         <v>-11.301153701804424</v>
       </c>
       <c r="S65" s="8">
-        <f t="shared" si="377"/>
+        <f t="shared" si="378"/>
         <v>-17.58433900898401</v>
       </c>
     </row>
@@ -25481,7 +25507,7 @@
         <v>27.443000000000001</v>
       </c>
       <c r="C67" s="8">
-        <f t="shared" si="375"/>
+        <f t="shared" si="376"/>
         <v>83.623667198857333</v>
       </c>
       <c r="D67" s="8">
@@ -25489,19 +25515,19 @@
         <v>77.34048189167774</v>
       </c>
       <c r="E67" s="8">
-        <f t="shared" ref="E67:S67" si="378">+D67-2*PI()</f>
+        <f t="shared" ref="E67:S67" si="379">+D67-2*PI()</f>
         <v>71.057296584498147</v>
       </c>
       <c r="F67" s="8">
-        <f t="shared" si="378"/>
+        <f t="shared" si="379"/>
         <v>64.774111277318553</v>
       </c>
       <c r="G67" s="8">
-        <f t="shared" si="378"/>
+        <f t="shared" si="379"/>
         <v>58.490925970138967</v>
       </c>
       <c r="H67" s="8">
-        <f t="shared" si="378"/>
+        <f t="shared" si="379"/>
         <v>52.207740662959381</v>
       </c>
       <c r="I67" s="8">
@@ -25509,43 +25535,43 @@
         <v>45.924555355779795</v>
       </c>
       <c r="J67" s="8">
-        <f t="shared" si="378"/>
+        <f t="shared" si="379"/>
         <v>39.641370048600209</v>
       </c>
       <c r="K67" s="8">
-        <f t="shared" si="378"/>
+        <f t="shared" si="379"/>
         <v>33.358184741420622</v>
       </c>
       <c r="L67" s="8">
-        <f t="shared" si="378"/>
+        <f t="shared" si="379"/>
         <v>27.074999434241036</v>
       </c>
       <c r="M67" s="8">
-        <f t="shared" si="378"/>
+        <f t="shared" si="379"/>
         <v>20.79181412706145</v>
       </c>
       <c r="N67" s="8">
-        <f t="shared" si="378"/>
+        <f t="shared" si="379"/>
         <v>14.508628819881864</v>
       </c>
       <c r="O67" s="8">
-        <f t="shared" si="378"/>
+        <f t="shared" si="379"/>
         <v>8.2254435127022774</v>
       </c>
       <c r="P67" s="8">
-        <f t="shared" si="378"/>
+        <f t="shared" si="379"/>
         <v>1.9422582055226911</v>
       </c>
       <c r="Q67" s="8">
-        <f t="shared" si="378"/>
+        <f t="shared" si="379"/>
         <v>-4.3409271016568951</v>
       </c>
       <c r="R67" s="8">
-        <f t="shared" si="378"/>
+        <f t="shared" si="379"/>
         <v>-10.624112408836481</v>
       </c>
       <c r="S67" s="8">
-        <f t="shared" si="378"/>
+        <f t="shared" si="379"/>
         <v>-16.907297716016068</v>
       </c>
     </row>
@@ -25580,7 +25606,7 @@
         <v>27.093</v>
       </c>
       <c r="C69" s="8">
-        <f t="shared" si="375"/>
+        <f t="shared" si="376"/>
         <v>84.703956702404383</v>
       </c>
       <c r="D69" s="8">
@@ -25588,19 +25614,19 @@
         <v>78.42077139522479</v>
       </c>
       <c r="E69" s="8">
-        <f t="shared" ref="E69:S69" si="379">+D69-2*PI()</f>
+        <f t="shared" ref="E69:S69" si="380">+D69-2*PI()</f>
         <v>72.137586088045197</v>
       </c>
       <c r="F69" s="8">
-        <f t="shared" si="379"/>
+        <f t="shared" si="380"/>
         <v>65.854400780865603</v>
       </c>
       <c r="G69" s="8">
-        <f t="shared" si="379"/>
+        <f t="shared" si="380"/>
         <v>59.571215473686017</v>
       </c>
       <c r="H69" s="8">
-        <f t="shared" si="379"/>
+        <f t="shared" si="380"/>
         <v>53.288030166506431</v>
       </c>
       <c r="I69" s="8">
@@ -25608,69 +25634,69 @@
         <v>47.004844859326845</v>
       </c>
       <c r="J69" s="8">
-        <f t="shared" si="379"/>
+        <f t="shared" si="380"/>
         <v>40.721659552147258</v>
       </c>
       <c r="K69" s="8">
-        <f t="shared" si="379"/>
+        <f t="shared" si="380"/>
         <v>34.438474244967672</v>
       </c>
       <c r="L69" s="8">
-        <f t="shared" si="379"/>
+        <f t="shared" si="380"/>
         <v>28.155288937788086</v>
       </c>
       <c r="M69" s="8">
-        <f t="shared" si="379"/>
+        <f t="shared" si="380"/>
         <v>21.8721036306085</v>
       </c>
       <c r="N69" s="8">
-        <f t="shared" si="379"/>
+        <f t="shared" si="380"/>
         <v>15.588918323428913</v>
       </c>
       <c r="O69" s="8">
-        <f t="shared" si="379"/>
+        <f t="shared" si="380"/>
         <v>9.3057330162493272</v>
       </c>
       <c r="P69" s="8">
-        <f t="shared" si="379"/>
+        <f t="shared" si="380"/>
         <v>3.022547709069741</v>
       </c>
       <c r="Q69" s="8">
-        <f t="shared" si="379"/>
+        <f t="shared" si="380"/>
         <v>-3.2606375981098452</v>
       </c>
       <c r="R69" s="8">
-        <f t="shared" si="379"/>
+        <f t="shared" si="380"/>
         <v>-9.5438229052894314</v>
       </c>
       <c r="S69" s="8">
-        <f t="shared" si="379"/>
+        <f t="shared" si="380"/>
         <v>-15.827008212469018</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="M70" s="18">
-        <f t="shared" ref="M70:R70" si="380">2*PI()/M69</f>
+        <f t="shared" ref="M70:R70" si="381">2*PI()/M69</f>
         <v>0.28726936435993755</v>
       </c>
       <c r="N70" s="5">
-        <f t="shared" si="380"/>
+        <f t="shared" si="381"/>
         <v>0.4030546043554834</v>
       </c>
       <c r="O70">
-        <f t="shared" si="380"/>
+        <f t="shared" si="381"/>
         <v>0.67519509706630532</v>
       </c>
       <c r="P70">
-        <f t="shared" si="380"/>
+        <f t="shared" si="381"/>
         <v>2.0787712592015235</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="380"/>
+        <f t="shared" si="381"/>
         <v>-1.9269805730087508</v>
       </c>
       <c r="R70">
-        <f t="shared" si="380"/>
+        <f t="shared" si="381"/>
         <v>-0.65835099514443884</v>
       </c>
     </row>
@@ -25682,7 +25708,7 @@
         <v>13.595000000000001</v>
       </c>
       <c r="C71" s="8">
-        <f t="shared" si="375"/>
+        <f t="shared" si="376"/>
         <v>168.803552698657</v>
       </c>
       <c r="D71" s="8">
@@ -25690,19 +25716,19 @@
         <v>87.122143705322372</v>
       </c>
       <c r="E71" s="8">
-        <f t="shared" ref="E71:S71" si="381">+D71-2*PI()</f>
+        <f t="shared" ref="E71:S71" si="382">+D71-2*PI()</f>
         <v>80.838958398142779</v>
       </c>
       <c r="F71" s="8">
-        <f t="shared" si="381"/>
+        <f t="shared" si="382"/>
         <v>74.555773090963186</v>
       </c>
       <c r="G71" s="8">
-        <f t="shared" si="381"/>
+        <f t="shared" si="382"/>
         <v>68.272587783783592</v>
       </c>
       <c r="H71" s="8">
-        <f t="shared" si="381"/>
+        <f t="shared" si="382"/>
         <v>61.989402476604006</v>
       </c>
       <c r="I71" s="8">
@@ -25710,43 +25736,43 @@
         <v>55.70621716942442</v>
       </c>
       <c r="J71" s="8">
-        <f t="shared" si="381"/>
+        <f t="shared" si="382"/>
         <v>49.423031862244834</v>
       </c>
       <c r="K71" s="8">
-        <f t="shared" si="381"/>
+        <f t="shared" si="382"/>
         <v>43.139846555065247</v>
       </c>
       <c r="L71" s="8">
-        <f t="shared" si="381"/>
+        <f t="shared" si="382"/>
         <v>36.856661247885661</v>
       </c>
       <c r="M71" s="8">
-        <f t="shared" si="381"/>
+        <f t="shared" si="382"/>
         <v>30.573475940706075</v>
       </c>
       <c r="N71" s="8">
-        <f t="shared" si="381"/>
+        <f t="shared" si="382"/>
         <v>24.290290633526489</v>
       </c>
       <c r="O71" s="8">
-        <f t="shared" si="381"/>
+        <f t="shared" si="382"/>
         <v>18.007105326346903</v>
       </c>
       <c r="P71" s="8">
-        <f t="shared" si="381"/>
+        <f t="shared" si="382"/>
         <v>11.723920019167316</v>
       </c>
       <c r="Q71" s="8">
-        <f t="shared" si="381"/>
+        <f t="shared" si="382"/>
         <v>5.4407347119877301</v>
       </c>
       <c r="R71" s="8">
-        <f t="shared" si="381"/>
+        <f t="shared" si="382"/>
         <v>-0.84245059519185617</v>
       </c>
       <c r="S71" s="8">
-        <f t="shared" si="381"/>
+        <f t="shared" si="382"/>
         <v>-7.1256359023714424</v>
       </c>
     </row>
@@ -25776,7 +25802,7 @@
         <v>13.756270000000001</v>
       </c>
       <c r="C73" s="8">
-        <f t="shared" si="375"/>
+        <f t="shared" si="376"/>
         <v>166.82460426687189</v>
       </c>
       <c r="D73" s="8">
@@ -25784,19 +25810,19 @@
         <v>85.143195273537259</v>
       </c>
       <c r="E73" s="8">
-        <f t="shared" ref="E73:S73" si="382">+D73-2*PI()</f>
+        <f t="shared" ref="E73:S73" si="383">+D73-2*PI()</f>
         <v>78.860009966357666</v>
       </c>
       <c r="F73" s="8">
-        <f t="shared" si="382"/>
+        <f t="shared" si="383"/>
         <v>72.576824659178072</v>
       </c>
       <c r="G73" s="8">
-        <f t="shared" si="382"/>
+        <f t="shared" si="383"/>
         <v>66.293639351998479</v>
       </c>
       <c r="H73" s="8">
-        <f t="shared" si="382"/>
+        <f t="shared" si="383"/>
         <v>60.010454044818893</v>
       </c>
       <c r="I73" s="8">
@@ -25804,43 +25830,43 @@
         <v>53.727268737639307</v>
       </c>
       <c r="J73" s="8">
-        <f t="shared" si="382"/>
+        <f t="shared" si="383"/>
         <v>47.44408343045972</v>
       </c>
       <c r="K73" s="8">
-        <f t="shared" si="382"/>
+        <f t="shared" si="383"/>
         <v>41.160898123280134</v>
       </c>
       <c r="L73" s="8">
-        <f t="shared" si="382"/>
+        <f t="shared" si="383"/>
         <v>34.877712816100548</v>
       </c>
       <c r="M73" s="8">
-        <f t="shared" si="382"/>
+        <f t="shared" si="383"/>
         <v>28.594527508920962</v>
       </c>
       <c r="N73" s="8">
-        <f t="shared" si="382"/>
+        <f t="shared" si="383"/>
         <v>22.311342201741375</v>
       </c>
       <c r="O73" s="8">
-        <f t="shared" si="382"/>
+        <f t="shared" si="383"/>
         <v>16.028156894561789</v>
       </c>
       <c r="P73" s="8">
-        <f t="shared" si="382"/>
+        <f t="shared" si="383"/>
         <v>9.7449715873822029</v>
       </c>
       <c r="Q73" s="8">
-        <f t="shared" si="382"/>
+        <f t="shared" si="383"/>
         <v>3.4617862802026167</v>
       </c>
       <c r="R73" s="8">
-        <f t="shared" si="382"/>
+        <f t="shared" si="383"/>
         <v>-2.8213990269769695</v>
       </c>
       <c r="S73" s="8">
-        <f t="shared" si="382"/>
+        <f t="shared" si="383"/>
         <v>-9.1045843341565558</v>
       </c>
     </row>
@@ -25874,7 +25900,7 @@
         <v>26.954999999999998</v>
       </c>
       <c r="C75" s="8">
-        <f t="shared" si="375"/>
+        <f t="shared" si="376"/>
         <v>85.137610793479581</v>
       </c>
       <c r="D75" s="8">
@@ -25882,19 +25908,19 @@
         <v>78.854425486299988</v>
       </c>
       <c r="E75" s="8">
-        <f t="shared" ref="E75:S75" si="383">+D75-2*PI()</f>
+        <f t="shared" ref="E75:S75" si="384">+D75-2*PI()</f>
         <v>72.571240179120394</v>
       </c>
       <c r="F75" s="8">
-        <f t="shared" si="383"/>
+        <f t="shared" si="384"/>
         <v>66.288054871940801</v>
       </c>
       <c r="G75" s="8">
-        <f t="shared" si="383"/>
+        <f t="shared" si="384"/>
         <v>60.004869564761215</v>
       </c>
       <c r="H75" s="8">
-        <f t="shared" si="383"/>
+        <f t="shared" si="384"/>
         <v>53.721684257581629</v>
       </c>
       <c r="I75" s="8">
@@ -25902,43 +25928,43 @@
         <v>47.438498950402042</v>
       </c>
       <c r="J75" s="8">
-        <f t="shared" si="383"/>
+        <f t="shared" si="384"/>
         <v>41.155313643222456</v>
       </c>
       <c r="K75" s="8">
-        <f t="shared" si="383"/>
+        <f t="shared" si="384"/>
         <v>34.87212833604287</v>
       </c>
       <c r="L75" s="8">
-        <f t="shared" si="383"/>
+        <f t="shared" si="384"/>
         <v>28.588943028863284</v>
       </c>
       <c r="M75" s="8">
-        <f t="shared" si="383"/>
+        <f t="shared" si="384"/>
         <v>22.305757721683698</v>
       </c>
       <c r="N75" s="8">
-        <f t="shared" si="383"/>
+        <f t="shared" si="384"/>
         <v>16.022572414504111</v>
       </c>
       <c r="O75" s="8">
-        <f t="shared" si="383"/>
+        <f t="shared" si="384"/>
         <v>9.7393871073245251</v>
       </c>
       <c r="P75" s="8">
-        <f t="shared" si="383"/>
+        <f t="shared" si="384"/>
         <v>3.4562018001449388</v>
       </c>
       <c r="Q75" s="8">
-        <f t="shared" si="383"/>
+        <f t="shared" si="384"/>
         <v>-2.8269835070346474</v>
       </c>
       <c r="R75" s="8">
-        <f t="shared" si="383"/>
+        <f t="shared" si="384"/>
         <v>-9.1101688142142336</v>
       </c>
       <c r="S75" s="8">
-        <f t="shared" si="383"/>
+        <f t="shared" si="384"/>
         <v>-15.39335412139382</v>
       </c>
     </row>
@@ -25972,7 +25998,7 @@
         <v>34.847000000000001</v>
       </c>
       <c r="C77" s="8">
-        <f t="shared" si="375"/>
+        <f t="shared" si="376"/>
         <v>65.856007660293329</v>
       </c>
       <c r="D77" s="8">
@@ -25980,19 +26006,19 @@
         <v>59.572822353113743</v>
       </c>
       <c r="E77" s="8">
-        <f t="shared" ref="E77:S77" si="384">+D77-2*PI()</f>
+        <f t="shared" ref="E77:S77" si="385">+D77-2*PI()</f>
         <v>53.289637045934157</v>
       </c>
       <c r="F77" s="8">
-        <f t="shared" si="384"/>
+        <f t="shared" si="385"/>
         <v>47.006451738754571</v>
       </c>
       <c r="G77" s="8">
-        <f t="shared" si="384"/>
+        <f t="shared" si="385"/>
         <v>40.723266431574984</v>
       </c>
       <c r="H77" s="8">
-        <f t="shared" si="384"/>
+        <f t="shared" si="385"/>
         <v>34.440081124395398</v>
       </c>
       <c r="I77" s="8">
@@ -26000,61 +26026,61 @@
         <v>28.156895817215812</v>
       </c>
       <c r="J77" s="8">
-        <f t="shared" si="384"/>
+        <f t="shared" si="385"/>
         <v>21.873710510036226</v>
       </c>
       <c r="K77" s="8">
-        <f t="shared" si="384"/>
+        <f t="shared" si="385"/>
         <v>15.590525202856639</v>
       </c>
       <c r="L77" s="8">
-        <f t="shared" si="384"/>
+        <f t="shared" si="385"/>
         <v>9.3073398956770532</v>
       </c>
       <c r="M77" s="8">
-        <f t="shared" si="384"/>
+        <f t="shared" si="385"/>
         <v>3.024154588497467</v>
       </c>
       <c r="N77" s="8">
-        <f t="shared" si="384"/>
+        <f t="shared" si="385"/>
         <v>-3.2590307186821192</v>
       </c>
       <c r="O77" s="8">
-        <f t="shared" si="384"/>
+        <f t="shared" si="385"/>
         <v>-9.5422160258617055</v>
       </c>
       <c r="P77" s="8">
-        <f t="shared" si="384"/>
+        <f t="shared" si="385"/>
         <v>-15.825401333041292</v>
       </c>
       <c r="Q77" s="8">
-        <f t="shared" si="384"/>
+        <f t="shared" si="385"/>
         <v>-22.108586640220878</v>
       </c>
       <c r="R77" s="8">
-        <f t="shared" si="384"/>
+        <f t="shared" si="385"/>
         <v>-28.391771947400464</v>
       </c>
       <c r="S77" s="8">
-        <f t="shared" si="384"/>
+        <f t="shared" si="385"/>
         <v>-34.67495725458005</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K78">
-        <f t="shared" ref="K78:N78" si="385">2*PI()/K77</f>
+        <f t="shared" ref="K78:N78" si="386">2*PI()/K77</f>
         <v>0.40301306244823126</v>
       </c>
       <c r="L78">
-        <f t="shared" si="385"/>
+        <f t="shared" si="386"/>
         <v>0.67507852701263382</v>
       </c>
       <c r="M78">
-        <f t="shared" si="385"/>
+        <f t="shared" si="386"/>
         <v>2.07766670760748</v>
       </c>
       <c r="N78">
-        <f t="shared" si="385"/>
+        <f t="shared" si="386"/>
         <v>-1.9279306792543425</v>
       </c>
       <c r="O78">
@@ -26086,7 +26112,7 @@
         <v>23.942</v>
       </c>
       <c r="C79" s="8">
-        <f t="shared" si="375"/>
+        <f t="shared" si="376"/>
         <v>95.851821023232887</v>
       </c>
       <c r="D79" s="8">
@@ -26094,19 +26120,19 @@
         <v>89.568635716053308</v>
       </c>
       <c r="E79" s="8">
-        <f t="shared" ref="E79:S79" si="386">+D79-2*PI()</f>
+        <f t="shared" ref="E79:S79" si="387">+D79-2*PI()</f>
         <v>83.285450408873714</v>
       </c>
       <c r="F79" s="8">
-        <f t="shared" si="386"/>
+        <f t="shared" si="387"/>
         <v>77.002265101694121</v>
       </c>
       <c r="G79" s="8">
-        <f t="shared" si="386"/>
+        <f t="shared" si="387"/>
         <v>70.719079794514528</v>
       </c>
       <c r="H79" s="8">
-        <f t="shared" si="386"/>
+        <f t="shared" si="387"/>
         <v>64.435894487334934</v>
       </c>
       <c r="I79" s="8">
@@ -26114,61 +26140,61 @@
         <v>58.152709180155348</v>
       </c>
       <c r="J79" s="8">
-        <f t="shared" si="386"/>
+        <f t="shared" si="387"/>
         <v>51.869523872975762</v>
       </c>
       <c r="K79" s="8">
-        <f t="shared" si="386"/>
+        <f t="shared" si="387"/>
         <v>45.586338565796176</v>
       </c>
       <c r="L79" s="8">
-        <f t="shared" si="386"/>
+        <f t="shared" si="387"/>
         <v>39.303153258616589</v>
       </c>
       <c r="M79" s="8">
-        <f t="shared" si="386"/>
+        <f t="shared" si="387"/>
         <v>33.019967951437003</v>
       </c>
       <c r="N79" s="8">
-        <f t="shared" si="386"/>
+        <f t="shared" si="387"/>
         <v>26.736782644257417</v>
       </c>
       <c r="O79" s="8">
-        <f t="shared" si="386"/>
+        <f t="shared" si="387"/>
         <v>20.453597337077831</v>
       </c>
       <c r="P79" s="8">
-        <f t="shared" si="386"/>
+        <f t="shared" si="387"/>
         <v>14.170412029898245</v>
       </c>
       <c r="Q79" s="8">
-        <f t="shared" si="386"/>
+        <f t="shared" si="387"/>
         <v>7.8872267227186583</v>
       </c>
       <c r="R79" s="8">
-        <f t="shared" si="386"/>
+        <f t="shared" si="387"/>
         <v>1.6040414155390721</v>
       </c>
       <c r="S79" s="8">
-        <f t="shared" si="386"/>
+        <f t="shared" si="387"/>
         <v>-4.6791438916405141</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K80">
-        <f t="shared" ref="K80:N80" si="387">2*PI()/K79</f>
+        <f t="shared" ref="K80:N80" si="388">2*PI()/K79</f>
         <v>0.13783044448965495</v>
       </c>
       <c r="L80">
-        <f t="shared" si="387"/>
+        <f t="shared" si="388"/>
         <v>0.15986466189712395</v>
       </c>
       <c r="M80">
-        <f t="shared" si="387"/>
+        <f t="shared" si="388"/>
         <v>0.19028441567297605</v>
       </c>
       <c r="N80">
-        <f t="shared" si="387"/>
+        <f t="shared" si="388"/>
         <v>0.23500154789675495</v>
       </c>
       <c r="O80">
@@ -26200,7 +26226,7 @@
         <v>29.09</v>
       </c>
       <c r="C81" s="8">
-        <f t="shared" si="375"/>
+        <f t="shared" si="376"/>
         <v>78.889113060785206</v>
       </c>
       <c r="D81" s="8">
@@ -26208,19 +26234,19 @@
         <v>72.605927753605613</v>
       </c>
       <c r="E81" s="8">
-        <f t="shared" ref="E81:S81" si="388">+D81-2*PI()</f>
+        <f t="shared" ref="E81:S81" si="389">+D81-2*PI()</f>
         <v>66.32274244642602</v>
       </c>
       <c r="F81" s="8">
-        <f t="shared" si="388"/>
+        <f t="shared" si="389"/>
         <v>60.039557139246433</v>
       </c>
       <c r="G81" s="8">
-        <f t="shared" si="388"/>
+        <f t="shared" si="389"/>
         <v>53.756371832066847</v>
       </c>
       <c r="H81" s="8">
-        <f t="shared" si="388"/>
+        <f t="shared" si="389"/>
         <v>47.473186524887261</v>
       </c>
       <c r="I81" s="8">
@@ -26228,43 +26254,43 @@
         <v>41.190001217707675</v>
       </c>
       <c r="J81" s="8">
-        <f t="shared" si="388"/>
+        <f t="shared" si="389"/>
         <v>34.906815910528088</v>
       </c>
       <c r="K81" s="8">
-        <f t="shared" si="388"/>
+        <f t="shared" si="389"/>
         <v>28.623630603348502</v>
       </c>
       <c r="L81" s="8">
-        <f t="shared" si="388"/>
+        <f t="shared" si="389"/>
         <v>22.340445296168916</v>
       </c>
       <c r="M81" s="8">
-        <f t="shared" si="388"/>
+        <f t="shared" si="389"/>
         <v>16.05725998898933</v>
       </c>
       <c r="N81" s="8">
-        <f t="shared" si="388"/>
+        <f t="shared" si="389"/>
         <v>9.7740746818097435</v>
       </c>
       <c r="O81" s="8">
-        <f t="shared" si="388"/>
+        <f t="shared" si="389"/>
         <v>3.4908893746301572</v>
       </c>
       <c r="P81" s="8">
-        <f t="shared" si="388"/>
+        <f t="shared" si="389"/>
         <v>-2.792295932549429</v>
       </c>
       <c r="Q81" s="8">
-        <f t="shared" si="388"/>
+        <f t="shared" si="389"/>
         <v>-9.0754812397290152</v>
       </c>
       <c r="R81" s="8">
-        <f t="shared" si="388"/>
+        <f t="shared" si="389"/>
         <v>-15.358666546908601</v>
       </c>
       <c r="S81" s="8">
-        <f t="shared" si="388"/>
+        <f t="shared" si="389"/>
         <v>-21.641851854088188</v>
       </c>
     </row>
@@ -26336,12 +26362,12 @@
         <v>59</v>
       </c>
       <c r="C95" s="33">
-        <f t="shared" ref="C95:C106" si="389">2048/B95/12</f>
+        <f t="shared" ref="C95:C106" si="390">2048/B95/12</f>
         <v>2.8926553672316384</v>
       </c>
       <c r="D95" s="33"/>
       <c r="E95" s="33">
-        <f t="shared" ref="E95:E106" si="390">1/(1/C95-1/2)</f>
+        <f t="shared" ref="E95:E106" si="391">1/(1/C95-1/2)</f>
         <v>-6.481012658227848</v>
       </c>
       <c r="J95">
@@ -26356,12 +26382,12 @@
         <v>97</v>
       </c>
       <c r="C96" s="36">
-        <f t="shared" si="389"/>
+        <f t="shared" si="390"/>
         <v>1.7594501718213058</v>
       </c>
       <c r="D96" s="36"/>
       <c r="E96" s="36">
-        <f t="shared" si="390"/>
+        <f t="shared" si="391"/>
         <v>14.628571428571428</v>
       </c>
       <c r="J96">
@@ -26376,12 +26402,12 @@
         <v>76</v>
       </c>
       <c r="C97" s="5">
-        <f t="shared" si="389"/>
+        <f t="shared" si="390"/>
         <v>2.2456140350877192</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="5">
-        <f t="shared" si="390"/>
+        <f t="shared" si="391"/>
         <v>-18.285714285714285</v>
       </c>
       <c r="J97">
@@ -26396,12 +26422,12 @@
         <v>94.5</v>
       </c>
       <c r="C98" s="35">
-        <f t="shared" si="389"/>
+        <f t="shared" si="390"/>
         <v>1.8059964726631392</v>
       </c>
       <c r="D98" s="35"/>
       <c r="E98" s="35">
-        <f t="shared" si="390"/>
+        <f t="shared" si="391"/>
         <v>18.618181818181817</v>
       </c>
       <c r="J98">
@@ -26416,11 +26442,11 @@
         <v>42</v>
       </c>
       <c r="C99">
-        <f t="shared" si="389"/>
+        <f t="shared" si="390"/>
         <v>4.0634920634920633</v>
       </c>
       <c r="E99">
-        <f t="shared" si="390"/>
+        <f t="shared" si="391"/>
         <v>-3.9384615384615387</v>
       </c>
       <c r="J99">
@@ -26435,11 +26461,11 @@
         <v>44</v>
       </c>
       <c r="C100">
-        <f t="shared" si="389"/>
+        <f t="shared" si="390"/>
         <v>3.8787878787878789</v>
       </c>
       <c r="E100">
-        <f t="shared" si="390"/>
+        <f t="shared" si="391"/>
         <v>-4.129032258064516</v>
       </c>
     </row>
@@ -26448,11 +26474,11 @@
         <v>61.5</v>
       </c>
       <c r="C101">
-        <f t="shared" si="389"/>
+        <f t="shared" si="390"/>
         <v>2.7750677506775072</v>
       </c>
       <c r="E101">
-        <f t="shared" si="390"/>
+        <f t="shared" si="391"/>
         <v>-7.1608391608391582</v>
       </c>
     </row>
@@ -26461,11 +26487,11 @@
         <v>88</v>
       </c>
       <c r="C102">
-        <f t="shared" si="389"/>
+        <f t="shared" si="390"/>
         <v>1.9393939393939394</v>
       </c>
       <c r="E102">
-        <f t="shared" si="390"/>
+        <f t="shared" si="391"/>
         <v>64</v>
       </c>
     </row>
@@ -26474,11 +26500,11 @@
         <v>99</v>
       </c>
       <c r="C103">
-        <f t="shared" si="389"/>
+        <f t="shared" si="390"/>
         <v>1.7239057239057241</v>
       </c>
       <c r="E103">
-        <f t="shared" si="390"/>
+        <f t="shared" si="391"/>
         <v>12.487804878048781</v>
       </c>
     </row>
@@ -26487,12 +26513,12 @@
         <v>112</v>
       </c>
       <c r="C104" s="34">
-        <f t="shared" si="389"/>
+        <f t="shared" si="390"/>
         <v>1.5238095238095237</v>
       </c>
       <c r="D104" s="34"/>
       <c r="E104" s="34">
-        <f t="shared" si="390"/>
+        <f t="shared" si="391"/>
         <v>6.4</v>
       </c>
     </row>
@@ -26501,11 +26527,11 @@
         <v>117</v>
       </c>
       <c r="C105">
-        <f t="shared" si="389"/>
+        <f t="shared" si="390"/>
         <v>1.4586894586894588</v>
       </c>
       <c r="E105">
-        <f t="shared" si="390"/>
+        <f t="shared" si="391"/>
         <v>5.3894736842105262</v>
       </c>
     </row>
@@ -26514,11 +26540,11 @@
         <v>119</v>
       </c>
       <c r="C106">
-        <f t="shared" si="389"/>
+        <f t="shared" si="390"/>
         <v>1.4341736694677871</v>
       </c>
       <c r="E106">
-        <f t="shared" si="390"/>
+        <f t="shared" si="391"/>
         <v>5.0693069306930694</v>
       </c>
     </row>
@@ -26550,7 +26576,7 @@
         <v>2.1539374999999996</v>
       </c>
       <c r="Q114">
-        <f t="shared" ref="Q114:Q116" si="391">2*PI()/P114</f>
+        <f t="shared" ref="Q114:Q116" si="392">2*PI()/P114</f>
         <v>2.917069463333819</v>
       </c>
       <c r="R114">
@@ -26570,7 +26596,7 @@
         <v>3.5504464285714281</v>
       </c>
       <c r="Q115">
-        <f t="shared" si="391"/>
+        <f t="shared" si="392"/>
         <v>1.7696888077558499</v>
       </c>
       <c r="R115">
@@ -26590,8 +26616,105 @@
         <v>5.0416339285714278</v>
       </c>
       <c r="Q116">
-        <f t="shared" si="391"/>
+        <f t="shared" si="392"/>
         <v>1.2462597237717254</v>
+      </c>
+    </row>
+    <row r="134" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I134">
+        <f>2*PI()/I135</f>
+        <v>2.3692252289515783</v>
+      </c>
+      <c r="J134" s="41">
+        <f>2*PI()/J135</f>
+        <v>0.70319585897462367</v>
+      </c>
+    </row>
+    <row r="135" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I135">
+        <v>2.6520000000000001</v>
+      </c>
+      <c r="J135">
+        <f>2*PI()+I135</f>
+        <v>8.9351853071795873</v>
+      </c>
+    </row>
+    <row r="136" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I136">
+        <f>2*PI()/I137</f>
+        <v>1.1846126144757891</v>
+      </c>
+      <c r="J136" s="41">
+        <f>2*PI()/J137</f>
+        <v>0.5422529406935811</v>
+      </c>
+    </row>
+    <row r="137" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I137">
+        <f>2*I135</f>
+        <v>5.3040000000000003</v>
+      </c>
+      <c r="J137">
+        <f>2*PI()+I137</f>
+        <v>11.587185307179587</v>
+      </c>
+    </row>
+    <row r="138" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I138">
+        <f>2*PI()/I139</f>
+        <v>0.78974174298385946</v>
+      </c>
+      <c r="J138" s="41">
+        <f>2*PI()/J139</f>
+        <v>0.44126016844597993</v>
+      </c>
+      <c r="K138">
+        <f>1/(1/I138+2)</f>
+        <v>0.30616274431684526</v>
+      </c>
+      <c r="L138">
+        <f>1/(1/I138+1)</f>
+        <v>0.44126016844597982</v>
+      </c>
+    </row>
+    <row r="139" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I139">
+        <f>3*I135</f>
+        <v>7.9560000000000004</v>
+      </c>
+      <c r="J139">
+        <f>2*PI()+I139</f>
+        <v>14.239185307179586</v>
+      </c>
+    </row>
+    <row r="140" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I140">
+        <f>2*PI()/I141</f>
+        <v>0.59230630723789457</v>
+      </c>
+      <c r="J140" s="41">
+        <f>2*PI()/J141</f>
+        <v>0.37198013004504321</v>
+      </c>
+      <c r="K140">
+        <f>1/(1/I140+2)</f>
+        <v>0.27112647034679055</v>
+      </c>
+    </row>
+    <row r="141" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I141">
+        <f>4*I135</f>
+        <v>10.608000000000001</v>
+      </c>
+      <c r="J141">
+        <f>2*PI()+I141</f>
+        <v>16.891185307179587</v>
+      </c>
+    </row>
+    <row r="143" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="K143">
+        <f>10.608*3/4</f>
+        <v>7.9560000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -26604,7 +26727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S233"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
@@ -44373,7 +44496,7 @@
         <v>-15.8225</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G4:G10" si="1">+D5-D4</f>
+        <f t="shared" ref="G5:G10" si="1">+D5-D4</f>
         <v>186.44818999990821</v>
       </c>
     </row>
